--- a/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776127FD-4576-43DB-A5B0-99E31DAD01DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1844BB02-27AE-4635-A30E-EAAC5ED8EA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="9" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="205">
   <si>
     <t>Course</t>
   </si>
@@ -752,6 +752,12 @@
   </si>
   <si>
     <t>Practice Test</t>
+  </si>
+  <si>
+    <t>1) Laws of Motion</t>
+  </si>
+  <si>
+    <t>On Going</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1916,6 +1922,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2341,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3BDFFA-3B28-4FBD-9FBD-B0268E77162A}">
   <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+    <sheetView topLeftCell="G22" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -4592,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4736,14 +4746,14 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
       <c r="K7" s="44"/>
-      <c r="M7" s="124">
+      <c r="M7" s="182">
         <v>4</v>
       </c>
-      <c r="N7" s="125" t="s">
+      <c r="N7" s="183" t="s">
         <v>166</v>
       </c>
-      <c r="O7" s="124">
-        <v>1</v>
+      <c r="O7" s="182">
+        <v>0</v>
       </c>
       <c r="P7" s="63"/>
     </row>
@@ -4870,7 +4880,7 @@
       </c>
       <c r="O13" s="126">
         <f>SUM(O4:O11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="63"/>
     </row>
@@ -4898,7 +4908,7 @@
       </c>
       <c r="O15" s="126">
         <f>ROUND((O13/O14)*100,2)</f>
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="P15" s="63"/>
     </row>
@@ -4923,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4998,7 +5008,9 @@
       <c r="D4" s="129">
         <v>45262</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="129">
+        <v>45265</v>
+      </c>
       <c r="F4" s="129"/>
       <c r="G4" s="130"/>
       <c r="H4" s="130"/>
@@ -5023,7 +5035,9 @@
       <c r="D5" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="62" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="62"/>
       <c r="G5" s="62"/>
       <c r="H5" s="62"/>
@@ -5052,7 +5066,9 @@
       <c r="D6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -5069,7 +5085,9 @@
       <c r="P6" s="97">
         <v>0</v>
       </c>
-      <c r="Q6" s="63"/>
+      <c r="Q6" s="63" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
@@ -5204,7 +5222,9 @@
       <c r="D12" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="63"/>
+      <c r="E12" s="63" t="s">
+        <v>203</v>
+      </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
@@ -5383,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
   <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5452,7 +5472,9 @@
       <c r="D4" s="129">
         <v>45262</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="129">
+        <v>45265</v>
+      </c>
       <c r="F4" s="129"/>
       <c r="G4" s="130"/>
       <c r="H4" s="130"/>
@@ -5476,7 +5498,9 @@
       <c r="D5" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="62" t="s">
+        <v>200</v>
+      </c>
       <c r="F5" s="62"/>
       <c r="G5" s="62"/>
       <c r="H5" s="62"/>
@@ -5504,7 +5528,9 @@
       <c r="D6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -5561,16 +5587,16 @@
       <c r="I8" s="42"/>
       <c r="J8" s="43"/>
       <c r="K8" s="44"/>
-      <c r="M8" s="97">
+      <c r="M8" s="124">
         <v>5</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="N8" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="O8" s="97">
-        <v>0</v>
-      </c>
-      <c r="P8" s="63"/>
+      <c r="O8" s="124">
+        <v>1</v>
+      </c>
+      <c r="P8" s="125"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
@@ -5652,7 +5678,9 @@
       <c r="D12" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="63"/>
+      <c r="E12" s="63" t="s">
+        <v>201</v>
+      </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
@@ -5733,7 +5761,7 @@
       </c>
       <c r="O16" s="126">
         <f>SUM(O4:O14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16" s="63"/>
     </row>
@@ -5755,7 +5783,7 @@
       </c>
       <c r="O18" s="126">
         <f>ROUND((O16/O17)*100,2)</f>
-        <v>27.27</v>
+        <v>36.36</v>
       </c>
       <c r="P18" s="63"/>
     </row>

--- a/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1844BB02-27AE-4635-A30E-EAAC5ED8EA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD37617-DAF7-4FF2-8373-D6D6149A5B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
@@ -86,24 +86,6 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9982AFAF-E6E7-45BF-A44A-0C0167B0574C}</author>
-  </authors>
-  <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{9982AFAF-E6E7-45BF-A44A-0C0167B0574C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1) Redox</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={4EE09740-4AB8-4767-BD8A-38F7D58F39B2}</author>
   </authors>
   <commentList>
@@ -119,7 +101,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={77BE6F65-1B38-40C6-BD39-81B5DFEC0749}</author>
@@ -138,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="213">
   <si>
     <t>Course</t>
   </si>
@@ -605,10 +587,6 @@
 Timing: Friday 4-6pm     ||     Start date: 22/Sep/2023</t>
   </si>
   <si>
-    <t>Faculty: Subrata Ghosh     ||     Batch: B2: Booster JELET Crash Course Chemistry
-Timing: Thursday 2-6pm     ||     Start date: 07/Sep/2023</t>
-  </si>
-  <si>
     <t>Faculty: Subrata Ghosh     ||     Batch: B1: NEET &amp; IIT Crash Course Chemistry
 Timing: Thursday 4-6pm     ||     Start date: 07/Sep/2023</t>
   </si>
@@ -758,6 +736,34 @@
   </si>
   <si>
     <t>On Going</t>
+  </si>
+  <si>
+    <t>Faculty: Avishek Adhikari     ||     Batch: B2: Booster JELET Crash Course Chemistry
+Timing: Thursday 2-6pm     ||     Start date: 07/Sep/2023</t>
+  </si>
+  <si>
+    <t>10:30 PM - 12:30 PM</t>
+  </si>
+  <si>
+    <t>1) Oscillation &amp; Waves</t>
+  </si>
+  <si>
+    <t>12:30 PM - 2:00 PM</t>
+  </si>
+  <si>
+    <t>1) Vector</t>
+  </si>
+  <si>
+    <t>2) Straight Line</t>
+  </si>
+  <si>
+    <t>2:00 PM - 03:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Nomenclature </t>
+  </si>
+  <si>
+    <t>of Organic Chemistry</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1922,10 +1928,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2267,21 +2269,13 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D12" dT="2023-11-02T12:47:03.22" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{9982AFAF-E6E7-45BF-A44A-0C0167B0574C}">
-    <text>1) Redox</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D12" dT="2023-11-04T08:33:38.77" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{4EE09740-4AB8-4767-BD8A-38F7D58F39B2}">
     <text>1) Elasticity</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D12" dT="2023-11-04T08:34:55.19" personId="{A98E9D41-33A5-4BF6-BDEF-83BD84C6E107}" id="{77BE6F65-1B38-40C6-BD39-81B5DFEC0749}">
     <text>1) Determinants</text>
@@ -3421,19 +3415,19 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" s="1">
         <v>10000</v>
@@ -3450,7 +3444,7 @@
         <v>45234</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -4078,7 +4072,7 @@
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="156"/>
       <c r="D2" s="156"/>
@@ -4092,7 +4086,7 @@
         <v>148</v>
       </c>
       <c r="O2" s="126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P2" s="65" t="s">
         <v>8</v>
@@ -4555,7 +4549,7 @@
     <row r="31" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M31" s="97"/>
       <c r="N31" s="65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O31" s="126">
         <f>SUM(O4:O29)</f>
@@ -4577,7 +4571,7 @@
     <row r="33" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M33" s="97"/>
       <c r="N33" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O33" s="126">
         <f>ROUND((O31/O32)*100,2)</f>
@@ -4599,17 +4593,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
@@ -4621,7 +4615,7 @@
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="155" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="C2" s="156"/>
       <c r="D2" s="156"/>
@@ -4635,7 +4629,7 @@
         <v>148</v>
       </c>
       <c r="O2" s="126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P2" s="65" t="s">
         <v>8</v>
@@ -4666,7 +4660,9 @@
       <c r="C4" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="129">
+        <v>45269</v>
+      </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="49"/>
@@ -4678,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O4" s="97">
         <v>0</v>
@@ -4688,7 +4684,9 @@
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="162"/>
       <c r="C5" s="164"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="62" t="s">
+        <v>210</v>
+      </c>
       <c r="E5" s="39"/>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
@@ -4700,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O5" s="124">
         <v>1</v>
@@ -4714,7 +4712,9 @@
       <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
@@ -4726,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O6" s="97">
         <v>0</v>
@@ -4746,13 +4746,13 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
       <c r="K7" s="44"/>
-      <c r="M7" s="182">
+      <c r="M7" s="97">
         <v>4</v>
       </c>
-      <c r="N7" s="183" t="s">
-        <v>166</v>
-      </c>
-      <c r="O7" s="182">
+      <c r="N7" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" s="97">
         <v>0</v>
       </c>
       <c r="P7" s="63"/>
@@ -4774,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O8" s="97">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>6</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O9" s="97">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="N10" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O10" s="97">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O11" s="97">
         <v>0</v>
@@ -4858,7 +4858,9 @@
         <v>59</v>
       </c>
       <c r="C12" s="169"/>
-      <c r="D12" s="127"/>
+      <c r="D12" s="127" t="s">
+        <v>211</v>
+      </c>
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
       <c r="G12" s="63"/>
@@ -4870,13 +4872,15 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>212</v>
+      </c>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
       <c r="M13" s="97"/>
       <c r="N13" s="65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O13" s="126">
         <f>SUM(O4:O11)</f>
@@ -4904,7 +4908,7 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M15" s="97"/>
       <c r="N15" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O15" s="126">
         <f>ROUND((O13/O14)*100,2)</f>
@@ -4925,7 +4929,6 @@
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4933,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4973,7 +4976,7 @@
         <v>148</v>
       </c>
       <c r="P2" s="99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="98" t="s">
         <v>8</v>
@@ -4989,7 +4992,7 @@
       <c r="H3" s="177"/>
       <c r="I3" s="178"/>
       <c r="J3" s="165" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K3" s="166"/>
       <c r="L3" s="167"/>
@@ -5011,7 +5014,9 @@
       <c r="E4" s="129">
         <v>45265</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="129">
+        <v>45269</v>
+      </c>
       <c r="G4" s="130"/>
       <c r="H4" s="130"/>
       <c r="I4" s="149"/>
@@ -5022,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P4" s="124">
         <v>1</v>
@@ -5038,7 +5043,9 @@
       <c r="E5" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="62" t="s">
+        <v>205</v>
+      </c>
       <c r="G5" s="62"/>
       <c r="H5" s="62"/>
       <c r="I5" s="148"/>
@@ -5049,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P5" s="124">
         <v>1</v>
@@ -5069,7 +5076,9 @@
       <c r="E6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="150"/>
@@ -5080,13 +5089,13 @@
         <v>3</v>
       </c>
       <c r="O6" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P6" s="97">
         <v>0</v>
       </c>
       <c r="Q6" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -5107,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P7" s="124">
         <v>1</v>
@@ -5132,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P8" s="97">
         <v>0</v>
@@ -5157,7 +5166,7 @@
         <v>6</v>
       </c>
       <c r="O9" s="125" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P9" s="124">
         <v>1</v>
@@ -5182,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P10" s="124">
         <v>1</v>
@@ -5207,7 +5216,7 @@
         <v>8</v>
       </c>
       <c r="O11" s="125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P11" s="124">
         <v>1</v>
@@ -5220,12 +5229,14 @@
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="63"/>
+        <v>202</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>206</v>
+      </c>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="34"/>
@@ -5236,7 +5247,7 @@
         <v>9</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P12" s="97">
         <v>0</v>
@@ -5259,7 +5270,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P13" s="97">
         <v>0</v>
@@ -5305,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P15" s="97">
         <v>0</v>
@@ -5317,7 +5328,7 @@
         <v>13</v>
       </c>
       <c r="O16" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P16" s="97">
         <v>0</v>
@@ -5329,7 +5340,7 @@
         <v>14</v>
       </c>
       <c r="O17" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P17" s="97">
         <v>0</v>
@@ -5341,7 +5352,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P18" s="97">
         <v>0</v>
@@ -5351,7 +5362,7 @@
     <row r="21" spans="12:17" x14ac:dyDescent="0.3">
       <c r="N21" s="97"/>
       <c r="O21" s="65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P21" s="126">
         <f>SUM(P4:P15)</f>
@@ -5373,7 +5384,7 @@
     <row r="23" spans="12:17" x14ac:dyDescent="0.3">
       <c r="N23" s="97"/>
       <c r="O23" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P23" s="126">
         <f>ROUND((P21/P22)*100,2)</f>
@@ -5404,7 +5415,7 @@
   <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5440,7 +5451,7 @@
         <v>148</v>
       </c>
       <c r="O2" s="99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P2" s="98" t="s">
         <v>8</v>
@@ -5475,7 +5486,9 @@
       <c r="E4" s="129">
         <v>45265</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="129">
+        <v>45269</v>
+      </c>
       <c r="G4" s="130"/>
       <c r="H4" s="130"/>
       <c r="I4" s="145"/>
@@ -5485,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O4" s="124">
         <v>1</v>
@@ -5496,12 +5509,14 @@
       <c r="B5" s="162"/>
       <c r="C5" s="164"/>
       <c r="D5" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="62"/>
+        <v>199</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>207</v>
+      </c>
       <c r="G5" s="62"/>
       <c r="H5" s="62"/>
       <c r="I5" s="146"/>
@@ -5511,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O5" s="124">
         <v>1</v>
@@ -5531,7 +5546,9 @@
       <c r="E6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" s="42"/>
@@ -5541,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O6" s="124">
         <v>1</v>
@@ -5565,13 +5582,13 @@
         <v>4</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O7" s="97">
         <v>0</v>
       </c>
       <c r="P7" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -5591,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O8" s="124">
         <v>1</v>
@@ -5615,7 +5632,7 @@
         <v>6</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O9" s="97">
         <v>0</v>
@@ -5639,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="N10" s="63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O10" s="97">
         <v>0</v>
@@ -5663,7 +5680,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O11" s="97">
         <v>0</v>
@@ -5676,12 +5693,14 @@
       </c>
       <c r="C12" s="160"/>
       <c r="D12" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="63"/>
+        <v>200</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>208</v>
+      </c>
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="128"/>
@@ -5691,7 +5710,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O12" s="97">
         <v>0</v>
@@ -5703,7 +5722,9 @@
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="F13" s="63" t="s">
+        <v>209</v>
+      </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="128"/>
@@ -5713,7 +5734,7 @@
         <v>10</v>
       </c>
       <c r="N13" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O13" s="97">
         <v>0</v>
@@ -5735,7 +5756,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O14" s="97">
         <v>0</v>
@@ -5757,7 +5778,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M16" s="97"/>
       <c r="N16" s="65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O16" s="126">
         <f>SUM(O4:O14)</f>
@@ -5779,7 +5800,7 @@
     <row r="18" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M18" s="97"/>
       <c r="N18" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O18" s="126">
         <f>ROUND((O16/O17)*100,2)</f>

--- a/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD37617-DAF7-4FF2-8373-D6D6149A5B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC490C-98CD-46A2-B96D-5B931CE7C622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="7" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="217">
   <si>
     <t>Course</t>
   </si>
@@ -745,9 +745,6 @@
     <t>10:30 PM - 12:30 PM</t>
   </si>
   <si>
-    <t>1) Oscillation &amp; Waves</t>
-  </si>
-  <si>
     <t>12:30 PM - 2:00 PM</t>
   </si>
   <si>
@@ -764,6 +761,21 @@
   </si>
   <si>
     <t>of Organic Chemistry</t>
+  </si>
+  <si>
+    <t>1) Chemical Equilibrium</t>
+  </si>
+  <si>
+    <t>Oscillation</t>
+  </si>
+  <si>
+    <t>1) Oscillation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Oscillation </t>
+  </si>
+  <si>
+    <t>1) Straight Line</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1595,9 +1607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2297,7 +2306,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>70</v>
       </c>
       <c r="C1">
@@ -2305,7 +2314,7 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>69</v>
       </c>
       <c r="C2">
@@ -2313,7 +2322,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>68</v>
       </c>
       <c r="C3">
@@ -2321,7 +2330,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>71</v>
       </c>
       <c r="C4">
@@ -2329,7 +2338,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>72</v>
       </c>
       <c r="C5">
@@ -2357,7 +2366,7 @@
     <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" style="95" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="47.44140625" bestFit="1" customWidth="1"/>
@@ -2365,682 +2374,682 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
-      <c r="M2" s="98" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
+      <c r="M2" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="99" t="s">
+      <c r="N2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="98" t="s">
+      <c r="O2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="Q2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="165" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="167"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="M4" s="87" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="M4" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="97">
+      <c r="N4" s="96">
         <v>1</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="62">
         <v>1</v>
       </c>
-      <c r="Q4" s="63"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="162"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="97">
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="96">
         <v>2</v>
       </c>
-      <c r="O5" s="90" t="s">
+      <c r="O5" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="63">
+      <c r="P5" s="62">
         <v>1</v>
       </c>
-      <c r="Q5" s="63"/>
+      <c r="Q5" s="62"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="101">
+      <c r="B6" s="100">
         <v>1</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="97">
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="96">
         <v>3</v>
       </c>
-      <c r="O6" s="90" t="s">
+      <c r="O6" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="P6" s="63">
+      <c r="P6" s="62">
         <v>1</v>
       </c>
-      <c r="Q6" s="63"/>
+      <c r="Q6" s="62"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="106">
+      <c r="B7" s="105">
         <v>2</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="97">
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="96">
         <v>4</v>
       </c>
-      <c r="O7" s="90" t="s">
+      <c r="O7" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="62">
         <v>1</v>
       </c>
-      <c r="Q7" s="63"/>
+      <c r="Q7" s="62"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="106">
+      <c r="B8" s="105">
         <v>3</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="97">
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="96">
         <v>5</v>
       </c>
-      <c r="O8" s="90" t="s">
+      <c r="O8" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="P8" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="63"/>
+      <c r="P8" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="62"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="106">
+      <c r="B9" s="105">
         <v>4</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="97">
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="96">
         <v>6</v>
       </c>
-      <c r="O9" s="90" t="s">
+      <c r="O9" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="P9" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="63"/>
+      <c r="P9" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="62"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="106">
+      <c r="B10" s="105">
         <v>5</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="97">
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="96">
         <v>7</v>
       </c>
-      <c r="O10" s="93" t="s">
+      <c r="O10" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="P10" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="63"/>
+      <c r="P10" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="62"/>
     </row>
     <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <v>6</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="97">
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="96">
         <v>8</v>
       </c>
-      <c r="O11" s="90" t="s">
+      <c r="O11" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="P11" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="63"/>
+      <c r="P11" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="97">
+      <c r="C12" s="159"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="96">
         <v>9</v>
       </c>
-      <c r="O12" s="94" t="s">
+      <c r="O12" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="P12" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="63"/>
+      <c r="P12" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="62"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="97">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="96">
         <v>10</v>
       </c>
-      <c r="O13" s="90" t="s">
+      <c r="O13" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="P13" s="63">
+      <c r="P13" s="62">
         <v>1</v>
       </c>
-      <c r="Q13" s="63"/>
+      <c r="Q13" s="62"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="97">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="96">
         <v>11</v>
       </c>
-      <c r="O14" s="90" t="s">
+      <c r="O14" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="P14" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="63"/>
+      <c r="P14" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="62"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="97">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="96">
         <v>12</v>
       </c>
-      <c r="O15" s="90" t="s">
+      <c r="O15" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="63"/>
+      <c r="P15" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="62"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="M16" s="88" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="M16" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="N16" s="97">
+      <c r="N16" s="96">
         <v>13</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="63"/>
+      <c r="P16" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="62"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="97">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="96">
         <v>14</v>
       </c>
-      <c r="O17" s="91" t="s">
+      <c r="O17" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="63"/>
+      <c r="P17" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="62"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="97">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="96">
         <v>15</v>
       </c>
-      <c r="O18" s="91" t="s">
+      <c r="O18" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="63"/>
+      <c r="P18" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="62"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M19" s="63"/>
-      <c r="N19" s="97">
+      <c r="M19" s="62"/>
+      <c r="N19" s="96">
         <v>16</v>
       </c>
-      <c r="O19" s="91" t="s">
+      <c r="O19" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="63">
+      <c r="P19" s="62">
         <v>1</v>
       </c>
-      <c r="Q19" s="63"/>
+      <c r="Q19" s="62"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M20" s="63"/>
-      <c r="N20" s="97">
+      <c r="M20" s="62"/>
+      <c r="N20" s="96">
         <v>17</v>
       </c>
-      <c r="O20" s="91" t="s">
+      <c r="O20" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="63"/>
+      <c r="P20" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="62"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M21" s="63"/>
-      <c r="N21" s="97">
+      <c r="M21" s="62"/>
+      <c r="N21" s="96">
         <v>18</v>
       </c>
-      <c r="O21" s="91" t="s">
+      <c r="O21" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="63"/>
+      <c r="P21" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="62"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M22" s="63"/>
-      <c r="N22" s="97">
+      <c r="M22" s="62"/>
+      <c r="N22" s="96">
         <v>19</v>
       </c>
-      <c r="O22" s="91" t="s">
+      <c r="O22" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="63"/>
+      <c r="P22" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="62"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M23" s="63"/>
-      <c r="N23" s="97">
+      <c r="M23" s="62"/>
+      <c r="N23" s="96">
         <v>20</v>
       </c>
-      <c r="O23" s="91" t="s">
+      <c r="O23" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="P23" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="63"/>
+      <c r="P23" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="62"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M24" s="63"/>
-      <c r="N24" s="97">
+      <c r="M24" s="62"/>
+      <c r="N24" s="96">
         <v>21</v>
       </c>
-      <c r="O24" s="91" t="s">
+      <c r="O24" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="63"/>
+      <c r="P24" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="62"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M25" s="63"/>
-      <c r="N25" s="97">
+      <c r="M25" s="62"/>
+      <c r="N25" s="96">
         <v>22</v>
       </c>
-      <c r="O25" s="91" t="s">
+      <c r="O25" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="63"/>
+      <c r="P25" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="62"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M26" s="63"/>
-      <c r="N26" s="97">
+      <c r="M26" s="62"/>
+      <c r="N26" s="96">
         <v>23</v>
       </c>
-      <c r="O26" s="91" t="s">
+      <c r="O26" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="P26" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="63"/>
+      <c r="P26" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="62"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M27" s="63"/>
-      <c r="N27" s="97">
+      <c r="M27" s="62"/>
+      <c r="N27" s="96">
         <v>24</v>
       </c>
-      <c r="O27" s="91" t="s">
+      <c r="O27" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="P27" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="63"/>
+      <c r="P27" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="62"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M28" s="89" t="s">
+      <c r="M28" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="N28" s="97">
+      <c r="N28" s="96">
         <v>25</v>
       </c>
-      <c r="O28" s="92" t="s">
+      <c r="O28" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="P28" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="63" t="s">
+      <c r="P28" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="62" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M29" s="63"/>
-      <c r="N29" s="97">
+      <c r="M29" s="62"/>
+      <c r="N29" s="96">
         <v>26</v>
       </c>
-      <c r="O29" s="92" t="s">
+      <c r="O29" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="63">
+      <c r="P29" s="62">
         <v>1</v>
       </c>
-      <c r="Q29" s="63"/>
+      <c r="Q29" s="62"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M30" s="63"/>
-      <c r="N30" s="97">
+      <c r="M30" s="62"/>
+      <c r="N30" s="96">
         <v>27</v>
       </c>
-      <c r="O30" s="92" t="s">
+      <c r="O30" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="P30" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="63"/>
+      <c r="P30" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="62"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M31" s="63"/>
-      <c r="N31" s="97">
+      <c r="M31" s="62"/>
+      <c r="N31" s="96">
         <v>28</v>
       </c>
-      <c r="O31" s="92" t="s">
+      <c r="O31" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="P31" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="63"/>
+      <c r="P31" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="62"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M32" s="63"/>
-      <c r="N32" s="97">
+      <c r="M32" s="62"/>
+      <c r="N32" s="96">
         <v>29</v>
       </c>
-      <c r="O32" s="92" t="s">
+      <c r="O32" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="P32" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="63"/>
+      <c r="P32" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="62"/>
     </row>
     <row r="33" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M33" s="63"/>
-      <c r="N33" s="97">
+      <c r="M33" s="62"/>
+      <c r="N33" s="96">
         <v>30</v>
       </c>
-      <c r="O33" s="92" t="s">
+      <c r="O33" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="P33" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="63"/>
+      <c r="P33" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="62"/>
     </row>
     <row r="34" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M34" s="63"/>
-      <c r="N34" s="97">
+      <c r="M34" s="62"/>
+      <c r="N34" s="96">
         <v>31</v>
       </c>
-      <c r="O34" s="92" t="s">
+      <c r="O34" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="P34" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="63"/>
+      <c r="P34" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="62"/>
     </row>
     <row r="35" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M35" s="63"/>
-      <c r="N35" s="97">
+      <c r="M35" s="62"/>
+      <c r="N35" s="96">
         <v>32</v>
       </c>
-      <c r="O35" s="92" t="s">
+      <c r="O35" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="P35" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="63"/>
+      <c r="P35" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="62"/>
     </row>
     <row r="36" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M36" s="63"/>
-      <c r="N36" s="97">
+      <c r="M36" s="62"/>
+      <c r="N36" s="96">
         <v>33</v>
       </c>
-      <c r="O36" s="92" t="s">
+      <c r="O36" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="P36" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="63"/>
+      <c r="P36" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="62"/>
     </row>
     <row r="37" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M37" s="63"/>
-      <c r="N37" s="97">
+      <c r="M37" s="62"/>
+      <c r="N37" s="96">
         <v>34</v>
       </c>
-      <c r="O37" s="92" t="s">
+      <c r="O37" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="P37" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="63"/>
+      <c r="P37" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="62"/>
     </row>
     <row r="38" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M38" s="63"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
     </row>
     <row r="39" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M39" s="63"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="89" t="s">
+      <c r="M39" s="62"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="65">
+      <c r="P39" s="64">
         <f>SUM(P4:P37)</f>
         <v>7</v>
       </c>
-      <c r="Q39" s="63"/>
+      <c r="Q39" s="62"/>
     </row>
     <row r="40" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M40" s="63"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="89" t="s">
+      <c r="M40" s="62"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="P40" s="65">
+      <c r="P40" s="64">
         <v>34</v>
       </c>
-      <c r="Q40" s="63"/>
+      <c r="Q40" s="62"/>
     </row>
     <row r="41" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M41" s="63"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="89" t="s">
+      <c r="M41" s="62"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="P41" s="65">
+      <c r="P41" s="64">
         <f>ROUND((P39/P40)*100,2)</f>
         <v>20.59</v>
       </c>
-      <c r="Q41" s="63"/>
+      <c r="Q41" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3141,9 +3150,9 @@
         <f>G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="10" t="s">
         <v>27</v>
       </c>
@@ -3218,7 +3227,7 @@
       <c r="K6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="82">
         <v>45239</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -3293,7 +3302,7 @@
       <c r="K9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="83">
         <v>45239</v>
       </c>
       <c r="M9" s="10" t="s">
@@ -3368,7 +3377,7 @@
       <c r="K12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L12" s="82">
         <v>45239</v>
       </c>
       <c r="M12" s="19" t="s">
@@ -3395,23 +3404,23 @@
       <c r="M13" s="21"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119">
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118">
         <v>3</v>
       </c>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119">
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="119"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -3440,7 +3449,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="123">
+      <c r="L15" s="122">
         <v>45234</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -3476,18 +3485,18 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="122">
+      <c r="G18" s="121">
         <f>SUM(G3:G17)</f>
         <v>22000</v>
       </c>
-      <c r="H18" s="122">
+      <c r="H18" s="121">
         <f t="shared" ref="H18:I18" si="1">SUM(H3:H17)</f>
         <v>17000</v>
       </c>
-      <c r="I18" s="122">
+      <c r="I18" s="121">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
@@ -3582,7 +3591,7 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -3614,7 +3623,7 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="69"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
@@ -3642,38 +3651,38 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="74">
         <f>SUM(F3:G4)</f>
         <v>4500</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="74">
         <f>H5</f>
         <v>4500</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="75">
         <v>45239</v>
       </c>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="77"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="76"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="81" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -3706,8 +3715,8 @@
       <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="70"/>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="78" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3734,7 +3743,7 @@
       <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -3750,7 +3759,7 @@
         <f>H8</f>
         <v>6000</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="71">
         <v>45239</v>
       </c>
       <c r="K8" s="30"/>
@@ -3762,21 +3771,21 @@
       <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="2:17" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="77">
         <f>SUM(H3:H8)</f>
         <v>10500</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="77">
         <f>SUM(I3:I8)</f>
         <v>10500</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3818,35 +3827,35 @@
     <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="84" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3863,7 +3872,7 @@
       <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>45239</v>
       </c>
       <c r="F2" t="s">
@@ -3895,7 +3904,7 @@
       <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <v>45239</v>
       </c>
       <c r="F3" t="s">
@@ -3927,7 +3936,7 @@
       <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <v>45239</v>
       </c>
       <c r="F4" t="s">
@@ -3959,7 +3968,7 @@
       <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>45239</v>
       </c>
       <c r="F5" t="s">
@@ -3991,7 +4000,7 @@
       <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <v>45239</v>
       </c>
       <c r="F6" t="s">
@@ -4023,7 +4032,7 @@
       <c r="D7" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>45240</v>
       </c>
       <c r="F7" t="s">
@@ -4064,99 +4073,99 @@
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" style="95" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
-      <c r="M2" s="126" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
+      <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="126" t="s">
+      <c r="O2" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="165" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="167"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="63"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="M4" s="97">
+      <c r="G4" s="48"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="M4" s="96">
         <v>1</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="97">
-        <v>0</v>
-      </c>
-      <c r="P4" s="63"/>
+      <c r="O4" s="96">
+        <v>0</v>
+      </c>
+      <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="162"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="97">
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="M5" s="96">
         <v>2</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="97">
-        <v>0</v>
-      </c>
-      <c r="P5" s="63"/>
+      <c r="O5" s="96">
+        <v>0</v>
+      </c>
+      <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
@@ -4165,419 +4174,419 @@
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="M6" s="97">
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="M6" s="96">
         <v>3</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="97">
-        <v>0</v>
-      </c>
-      <c r="P6" s="63"/>
+      <c r="O6" s="96">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="124">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="M7" s="123">
         <v>4</v>
       </c>
-      <c r="N7" s="125" t="s">
+      <c r="N7" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="124">
+      <c r="O7" s="123">
         <v>1</v>
       </c>
-      <c r="P7" s="63"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="M8" s="97">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="96">
         <v>5</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="N8" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="O8" s="97">
-        <v>0</v>
-      </c>
-      <c r="P8" s="63"/>
+      <c r="O8" s="96">
+        <v>0</v>
+      </c>
+      <c r="P8" s="62"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="97">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="96">
         <v>6</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="O9" s="97">
-        <v>0</v>
-      </c>
-      <c r="P9" s="63"/>
+      <c r="O9" s="96">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="M10" s="97">
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="M10" s="96">
         <v>7</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="97">
-        <v>0</v>
-      </c>
-      <c r="P10" s="63"/>
+      <c r="O10" s="96">
+        <v>0</v>
+      </c>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="97">
+      <c r="B11" s="96">
         <v>6</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="M11" s="97">
+      <c r="C11" s="64"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="M11" s="96">
         <v>8</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="O11" s="97">
-        <v>0</v>
-      </c>
-      <c r="P11" s="63"/>
+      <c r="O11" s="96">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="M12" s="124">
+      <c r="C12" s="159"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="M12" s="123">
         <v>9</v>
       </c>
-      <c r="N12" s="125" t="s">
+      <c r="N12" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="O12" s="124">
+      <c r="O12" s="123">
         <v>1</v>
       </c>
-      <c r="P12" s="63"/>
+      <c r="P12" s="62"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="M13" s="97">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="M13" s="96">
         <v>10</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="O13" s="97">
-        <v>0</v>
-      </c>
-      <c r="P13" s="63"/>
+      <c r="O13" s="96">
+        <v>0</v>
+      </c>
+      <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="M14" s="97">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="M14" s="96">
         <v>11</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="97">
-        <v>0</v>
-      </c>
-      <c r="P14" s="63"/>
+      <c r="O14" s="96">
+        <v>0</v>
+      </c>
+      <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M15" s="97">
+      <c r="M15" s="96">
         <v>12</v>
       </c>
-      <c r="N15" s="63" t="s">
+      <c r="N15" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="97">
-        <v>0</v>
-      </c>
-      <c r="P15" s="63"/>
+      <c r="O15" s="96">
+        <v>0</v>
+      </c>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="124">
+      <c r="M16" s="123">
         <v>13</v>
       </c>
-      <c r="N16" s="125" t="s">
+      <c r="N16" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="O16" s="124">
+      <c r="O16" s="123">
         <v>1</v>
       </c>
-      <c r="P16" s="63"/>
+      <c r="P16" s="62"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M17" s="97">
+      <c r="M17" s="96">
         <v>14</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="N17" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="O17" s="97">
-        <v>0</v>
-      </c>
-      <c r="P17" s="63"/>
+      <c r="O17" s="96">
+        <v>0</v>
+      </c>
+      <c r="P17" s="62"/>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M18" s="97">
+      <c r="M18" s="96">
         <v>15</v>
       </c>
-      <c r="N18" s="63" t="s">
+      <c r="N18" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="97">
-        <v>0</v>
-      </c>
-      <c r="P18" s="63"/>
+      <c r="O18" s="96">
+        <v>0</v>
+      </c>
+      <c r="P18" s="62"/>
     </row>
     <row r="19" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M19" s="97">
+      <c r="M19" s="96">
         <v>16</v>
       </c>
-      <c r="N19" s="63" t="s">
+      <c r="N19" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="O19" s="97">
-        <v>0</v>
-      </c>
-      <c r="P19" s="63"/>
+      <c r="O19" s="96">
+        <v>0</v>
+      </c>
+      <c r="P19" s="62"/>
     </row>
     <row r="20" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M20" s="97">
+      <c r="M20" s="96">
         <v>17</v>
       </c>
-      <c r="N20" s="63" t="s">
+      <c r="N20" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="97">
-        <v>0</v>
-      </c>
-      <c r="P20" s="63"/>
+      <c r="O20" s="96">
+        <v>0</v>
+      </c>
+      <c r="P20" s="62"/>
     </row>
     <row r="21" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M21" s="97">
+      <c r="M21" s="96">
         <v>18</v>
       </c>
-      <c r="N21" s="63" t="s">
+      <c r="N21" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="O21" s="97">
-        <v>0</v>
-      </c>
-      <c r="P21" s="63"/>
+      <c r="O21" s="96">
+        <v>0</v>
+      </c>
+      <c r="P21" s="62"/>
     </row>
     <row r="22" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M22" s="97">
+      <c r="M22" s="96">
         <v>19</v>
       </c>
-      <c r="N22" s="63" t="s">
+      <c r="N22" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="97">
-        <v>0</v>
-      </c>
-      <c r="P22" s="63"/>
+      <c r="O22" s="96">
+        <v>0</v>
+      </c>
+      <c r="P22" s="62"/>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M23" s="97">
+      <c r="M23" s="96">
         <v>20</v>
       </c>
-      <c r="N23" s="63" t="s">
+      <c r="N23" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O23" s="97">
-        <v>0</v>
-      </c>
-      <c r="P23" s="63"/>
+      <c r="O23" s="96">
+        <v>0</v>
+      </c>
+      <c r="P23" s="62"/>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M24" s="97">
+      <c r="M24" s="96">
         <v>21</v>
       </c>
-      <c r="N24" s="63" t="s">
+      <c r="N24" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="O24" s="97">
-        <v>0</v>
-      </c>
-      <c r="P24" s="63"/>
+      <c r="O24" s="96">
+        <v>0</v>
+      </c>
+      <c r="P24" s="62"/>
     </row>
     <row r="25" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M25" s="97">
+      <c r="M25" s="96">
         <v>22</v>
       </c>
-      <c r="N25" s="63" t="s">
+      <c r="N25" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="97">
-        <v>0</v>
-      </c>
-      <c r="P25" s="63"/>
+      <c r="O25" s="96">
+        <v>0</v>
+      </c>
+      <c r="P25" s="62"/>
     </row>
     <row r="26" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M26" s="97">
+      <c r="M26" s="96">
         <v>23</v>
       </c>
-      <c r="N26" s="63" t="s">
+      <c r="N26" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="O26" s="97">
-        <v>0</v>
-      </c>
-      <c r="P26" s="63"/>
+      <c r="O26" s="96">
+        <v>0</v>
+      </c>
+      <c r="P26" s="62"/>
     </row>
     <row r="27" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M27" s="97">
+      <c r="M27" s="96">
         <v>24</v>
       </c>
-      <c r="N27" s="63" t="s">
+      <c r="N27" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="97">
-        <v>0</v>
-      </c>
-      <c r="P27" s="63"/>
+      <c r="O27" s="96">
+        <v>0</v>
+      </c>
+      <c r="P27" s="62"/>
     </row>
     <row r="28" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M28" s="97">
+      <c r="M28" s="96">
         <v>25</v>
       </c>
-      <c r="N28" s="63" t="s">
+      <c r="N28" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="O28" s="97">
-        <v>0</v>
-      </c>
-      <c r="P28" s="63"/>
+      <c r="O28" s="96">
+        <v>0</v>
+      </c>
+      <c r="P28" s="62"/>
     </row>
     <row r="29" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M29" s="97">
+      <c r="M29" s="96">
         <v>26</v>
       </c>
-      <c r="N29" s="63" t="s">
+      <c r="N29" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="O29" s="97">
-        <v>0</v>
-      </c>
-      <c r="P29" s="63"/>
+      <c r="O29" s="96">
+        <v>0</v>
+      </c>
+      <c r="P29" s="62"/>
     </row>
     <row r="30" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M30" s="97"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="63"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="62"/>
     </row>
     <row r="31" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M31" s="97"/>
-      <c r="N31" s="65" t="s">
+      <c r="M31" s="96"/>
+      <c r="N31" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="O31" s="126">
+      <c r="O31" s="125">
         <f>SUM(O4:O29)</f>
         <v>3</v>
       </c>
-      <c r="P31" s="63"/>
+      <c r="P31" s="62"/>
     </row>
     <row r="32" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M32" s="97"/>
-      <c r="N32" s="65" t="s">
+      <c r="M32" s="96"/>
+      <c r="N32" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="O32" s="126">
+      <c r="O32" s="125">
         <f>COUNT(O4:O29)</f>
         <v>26</v>
       </c>
-      <c r="P32" s="63"/>
+      <c r="P32" s="62"/>
     </row>
     <row r="33" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M33" s="97"/>
-      <c r="N33" s="65" t="s">
+      <c r="M33" s="96"/>
+      <c r="N33" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="O33" s="126">
+      <c r="O33" s="125">
         <f>ROUND((O31/O32)*100,2)</f>
         <v>11.54</v>
       </c>
-      <c r="P33" s="63"/>
+      <c r="P33" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4596,8 +4605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4614,96 +4623,100 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
-      <c r="M2" s="126" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
+      <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="126" t="s">
+      <c r="O2" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="165" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="167"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="63"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="128">
         <v>45269</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="128">
+        <v>45272</v>
+      </c>
       <c r="F4" s="38"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="M4" s="97">
+      <c r="G4" s="48"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="M4" s="96">
         <v>1</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="97">
-        <v>0</v>
-      </c>
-      <c r="P4" s="63"/>
+      <c r="O4" s="96">
+        <v>0</v>
+      </c>
+      <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="162"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="M5" s="124">
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="M5" s="123">
         <v>2</v>
       </c>
-      <c r="N5" s="125" t="s">
+      <c r="N5" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="124">
+      <c r="O5" s="123">
         <v>1</v>
       </c>
-      <c r="P5" s="63"/>
+      <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
@@ -4712,213 +4725,217 @@
       <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="M6" s="97">
+      <c r="E6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
+      <c r="M6" s="96">
         <v>3</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="O6" s="97">
-        <v>0</v>
-      </c>
-      <c r="P6" s="63"/>
+      <c r="O6" s="96">
+        <v>0</v>
+      </c>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="97">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="M7" s="96">
         <v>4</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="O7" s="97">
-        <v>0</v>
-      </c>
-      <c r="P7" s="63"/>
+      <c r="O7" s="96">
+        <v>0</v>
+      </c>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="M8" s="97">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="96">
         <v>5</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="N8" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="O8" s="97">
-        <v>0</v>
-      </c>
-      <c r="P8" s="63"/>
+      <c r="O8" s="96">
+        <v>0</v>
+      </c>
+      <c r="P8" s="62"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="97">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="96">
         <v>6</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="O9" s="97">
-        <v>0</v>
-      </c>
-      <c r="P9" s="63"/>
+      <c r="O9" s="96">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="M10" s="97">
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="M10" s="96">
         <v>7</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="97">
-        <v>0</v>
-      </c>
-      <c r="P10" s="63"/>
+      <c r="O10" s="96">
+        <v>0</v>
+      </c>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="35">
         <v>6</v>
       </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="M11" s="97">
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="M11" s="96">
         <v>8</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="O11" s="97">
-        <v>0</v>
-      </c>
-      <c r="P11" s="63"/>
+      <c r="O11" s="96">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="127" t="s">
+      <c r="C12" s="168"/>
+      <c r="D12" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="62"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="63"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="65" t="s">
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="126">
+      <c r="O13" s="125">
         <f>SUM(O4:O11)</f>
         <v>1</v>
       </c>
-      <c r="P13" s="63"/>
+      <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="65" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="O14" s="126">
+      <c r="O14" s="125">
         <f>COUNT(O4:O11)</f>
         <v>8</v>
       </c>
-      <c r="P14" s="63"/>
+      <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M15" s="97"/>
-      <c r="N15" s="65" t="s">
+      <c r="M15" s="96"/>
+      <c r="N15" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="O15" s="126">
+      <c r="O15" s="125">
         <f>ROUND((O13/O14)*100,2)</f>
         <v>12.5</v>
       </c>
-      <c r="P15" s="63"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="96"/>
-      <c r="O16" s="96"/>
+      <c r="M16" s="95"/>
+      <c r="O16" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4936,8 +4953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4959,109 +4976,113 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="172" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
-      <c r="N2" s="99" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="174"/>
+      <c r="N2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="98" t="s">
+      <c r="O2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="99" t="s">
+      <c r="P2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="Q2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="165" t="s">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="164" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="63"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="166"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="128">
         <v>45262</v>
       </c>
-      <c r="E4" s="129">
+      <c r="E4" s="128">
         <v>45265</v>
       </c>
-      <c r="F4" s="129">
+      <c r="F4" s="128">
         <v>45269</v>
       </c>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="N4" s="124">
+      <c r="G4" s="128">
+        <v>45272</v>
+      </c>
+      <c r="H4" s="129"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+      <c r="N4" s="123">
         <v>1</v>
       </c>
-      <c r="O4" s="125" t="s">
+      <c r="O4" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="124">
+      <c r="P4" s="123">
         <v>1</v>
       </c>
-      <c r="Q4" s="125"/>
+      <c r="Q4" s="124"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="162"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
-      <c r="N5" s="124">
+      <c r="G5" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="60"/>
+      <c r="N5" s="123">
         <v>2</v>
       </c>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="P5" s="124">
+      <c r="P5" s="123">
         <v>1</v>
       </c>
-      <c r="Q5" s="125"/>
+      <c r="Q5" s="124"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
@@ -5070,31 +5091,33 @@
       <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
-      <c r="N6" s="97">
+      <c r="G6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="N6" s="96">
         <v>3</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="63" t="s">
+      <c r="P6" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="62" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5103,294 +5126,307 @@
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
-      <c r="N7" s="124">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="N7" s="123">
         <v>4</v>
       </c>
-      <c r="O7" s="125" t="s">
+      <c r="O7" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="P7" s="124">
+      <c r="P7" s="123">
         <v>1</v>
       </c>
-      <c r="Q7" s="125"/>
+      <c r="Q7" s="124"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
-      <c r="N8" s="97">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="N8" s="96">
         <v>5</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="P8" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="63"/>
+      <c r="P8" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="62"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="N9" s="124">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="N9" s="123">
         <v>6</v>
       </c>
-      <c r="O9" s="125" t="s">
+      <c r="O9" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="P9" s="124">
+      <c r="P9" s="123">
         <v>1</v>
       </c>
-      <c r="Q9" s="125"/>
+      <c r="Q9" s="124"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
-      <c r="N10" s="124">
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="N10" s="123">
         <v>7</v>
       </c>
-      <c r="O10" s="125" t="s">
+      <c r="O10" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="P10" s="124">
+      <c r="P10" s="123">
         <v>1</v>
       </c>
-      <c r="Q10" s="125"/>
+      <c r="Q10" s="124"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>6</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="136"/>
-      <c r="N11" s="124">
+      <c r="C11" s="62"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="135"/>
+      <c r="N11" s="123">
         <v>8</v>
       </c>
-      <c r="O11" s="125" t="s">
+      <c r="O11" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="P11" s="124">
+      <c r="P11" s="123">
         <v>1</v>
       </c>
-      <c r="Q11" s="125"/>
+      <c r="Q11" s="124"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="159"/>
+      <c r="D12" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+      <c r="F12" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="62"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="142"/>
-      <c r="N12" s="97">
+      <c r="J12" s="140"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="141"/>
+      <c r="N12" s="96">
         <v>9</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="P12" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="63"/>
+      <c r="P12" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="62"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="63"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="34"/>
-      <c r="N13" s="97">
+      <c r="N13" s="96">
         <v>10</v>
       </c>
-      <c r="O13" s="63" t="s">
+      <c r="O13" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="63"/>
+      <c r="P13" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="62"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="141"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="63"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="34"/>
-      <c r="N14" s="97">
+      <c r="N14" s="96">
         <v>11</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="63"/>
+      <c r="P14" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="62"/>
     </row>
     <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
       <c r="L15" s="36"/>
-      <c r="N15" s="97">
+      <c r="N15" s="96">
         <v>12</v>
       </c>
-      <c r="O15" s="63" t="s">
+      <c r="O15" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="P15" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="63"/>
+      <c r="P15" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="62"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="97">
+      <c r="N16" s="96">
         <v>13</v>
       </c>
-      <c r="O16" s="63" t="s">
+      <c r="O16" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="63"/>
+      <c r="P16" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="62"/>
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N17" s="97">
+      <c r="N17" s="96">
         <v>14</v>
       </c>
-      <c r="O17" s="63" t="s">
+      <c r="O17" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="63"/>
+      <c r="P17" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="62"/>
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="97">
+      <c r="N18" s="96">
         <v>15</v>
       </c>
-      <c r="O18" s="63" t="s">
+      <c r="O18" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="P18" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="63"/>
+      <c r="P18" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="62"/>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="N19" s="123">
+        <v>16</v>
+      </c>
+      <c r="O19" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="124"/>
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N21" s="97"/>
-      <c r="O21" s="65" t="s">
+      <c r="N21" s="96"/>
+      <c r="O21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="P21" s="126">
-        <f>SUM(P4:P15)</f>
-        <v>6</v>
-      </c>
-      <c r="Q21" s="63"/>
+      <c r="P21" s="125">
+        <f>SUM(P4:P19)</f>
+        <v>7</v>
+      </c>
+      <c r="Q21" s="62"/>
     </row>
     <row r="22" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N22" s="97"/>
-      <c r="O22" s="65" t="s">
+      <c r="N22" s="96"/>
+      <c r="O22" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="126">
-        <f>COUNT(P4:P18)</f>
-        <v>15</v>
-      </c>
-      <c r="Q22" s="63"/>
+      <c r="P22" s="125">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="62"/>
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N23" s="97"/>
-      <c r="O23" s="65" t="s">
+      <c r="N23" s="96"/>
+      <c r="O23" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="P23" s="126">
+      <c r="P23" s="125">
         <f>ROUND((P21/P22)*100,2)</f>
-        <v>40</v>
-      </c>
-      <c r="Q23" s="63"/>
+        <v>43.75</v>
+      </c>
+      <c r="Q23" s="62"/>
     </row>
     <row r="24" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L24" t="s">
@@ -5414,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
   <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5435,103 +5471,107 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="M2" s="99" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="M2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="63"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="180"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="128">
         <v>45262</v>
       </c>
-      <c r="E4" s="129">
+      <c r="E4" s="128">
         <v>45265</v>
       </c>
-      <c r="F4" s="129">
+      <c r="F4" s="128">
         <v>45269</v>
       </c>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="139"/>
-      <c r="M4" s="124">
+      <c r="G4" s="128">
+        <v>45272</v>
+      </c>
+      <c r="H4" s="129"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="138"/>
+      <c r="M4" s="123">
         <v>1</v>
       </c>
-      <c r="N4" s="125" t="s">
+      <c r="N4" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="O4" s="124">
+      <c r="O4" s="123">
         <v>1</v>
       </c>
-      <c r="P4" s="125"/>
+      <c r="P4" s="124"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="162"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="140"/>
-      <c r="M5" s="124">
+      <c r="F5" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="139"/>
+      <c r="M5" s="123">
         <v>2</v>
       </c>
-      <c r="N5" s="125" t="s">
+      <c r="N5" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="O5" s="124">
+      <c r="O5" s="123">
         <v>1</v>
       </c>
-      <c r="P5" s="125"/>
+      <c r="P5" s="124"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
@@ -5540,54 +5580,56 @@
       <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="M6" s="124">
+      <c r="G6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="M6" s="123">
         <v>3</v>
       </c>
-      <c r="N6" s="125" t="s">
+      <c r="N6" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="O6" s="124">
+      <c r="O6" s="123">
         <v>1</v>
       </c>
-      <c r="P6" s="125"/>
+      <c r="P6" s="124"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="M7" s="97">
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="M7" s="96">
         <v>4</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="O7" s="97">
-        <v>0</v>
-      </c>
-      <c r="P7" s="63" t="s">
+      <c r="O7" s="96">
+        <v>0</v>
+      </c>
+      <c r="P7" s="62" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5596,217 +5638,219 @@
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="M8" s="124">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="123">
         <v>5</v>
       </c>
-      <c r="N8" s="125" t="s">
+      <c r="N8" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="124">
+      <c r="O8" s="123">
         <v>1</v>
       </c>
-      <c r="P8" s="125"/>
+      <c r="P8" s="124"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="M9" s="97">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9" s="96">
         <v>6</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="O9" s="97">
-        <v>0</v>
-      </c>
-      <c r="P9" s="63"/>
+      <c r="O9" s="96">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="M10" s="97">
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="M10" s="96">
         <v>7</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="O10" s="97">
-        <v>0</v>
-      </c>
-      <c r="P10" s="63"/>
+      <c r="O10" s="96">
+        <v>0</v>
+      </c>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="131">
+      <c r="B11" s="130">
         <v>6</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="M11" s="97">
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="M11" s="96">
         <v>8</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="97">
-        <v>0</v>
-      </c>
-      <c r="P11" s="63"/>
+      <c r="O11" s="96">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="172" t="s">
+      <c r="B12" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="159"/>
+      <c r="D12" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="62"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="141"/>
+      <c r="M12" s="96">
+        <v>9</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" s="96">
+        <v>0</v>
+      </c>
+      <c r="P12" s="62"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="140"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="142"/>
-      <c r="M12" s="97">
-        <v>9</v>
-      </c>
-      <c r="N12" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="O12" s="97">
-        <v>0</v>
-      </c>
-      <c r="P12" s="63"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="63"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="62"/>
       <c r="K13" s="34"/>
-      <c r="M13" s="97">
+      <c r="M13" s="96">
         <v>10</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="O13" s="97">
-        <v>0</v>
-      </c>
-      <c r="P13" s="63"/>
+      <c r="O13" s="96">
+        <v>0</v>
+      </c>
+      <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="141"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="63"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="62"/>
       <c r="K14" s="34"/>
-      <c r="M14" s="97">
+      <c r="M14" s="96">
         <v>11</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="O14" s="97">
-        <v>0</v>
-      </c>
-      <c r="P14" s="63"/>
+      <c r="O14" s="96">
+        <v>0</v>
+      </c>
+      <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="144"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="143"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="97"/>
-      <c r="N16" s="65" t="s">
+      <c r="M16" s="96"/>
+      <c r="N16" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="O16" s="126">
+      <c r="O16" s="125">
         <f>SUM(O4:O14)</f>
         <v>4</v>
       </c>
-      <c r="P16" s="63"/>
+      <c r="P16" s="62"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M17" s="97"/>
-      <c r="N17" s="65" t="s">
+      <c r="M17" s="96"/>
+      <c r="N17" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="O17" s="126">
+      <c r="O17" s="125">
         <f>COUNT(O4:O14)</f>
         <v>11</v>
       </c>
-      <c r="P17" s="63"/>
+      <c r="P17" s="62"/>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M18" s="97"/>
-      <c r="N18" s="65" t="s">
+      <c r="M18" s="96"/>
+      <c r="N18" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="O18" s="126">
+      <c r="O18" s="125">
         <f>ROUND((O16/O17)*100,2)</f>
         <v>36.36</v>
       </c>
-      <c r="P18" s="63"/>
+      <c r="P18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC490C-98CD-46A2-B96D-5B931CE7C622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDFDD85-4345-4739-A665-CF99E7E84F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="7" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="218">
   <si>
     <t>Course</t>
   </si>
@@ -717,9 +717,6 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Started</t>
-  </si>
-  <si>
     <t>1) Surface Tension</t>
   </si>
   <si>
@@ -776,6 +773,12 @@
   </si>
   <si>
     <t>1) Straight Line</t>
+  </si>
+  <si>
+    <t>1) Thermodynamics</t>
+  </si>
+  <si>
+    <t>Straight Line finished</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1793,9 +1796,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2374,14 +2374,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="155"/>
       <c r="M2" s="97" t="s">
         <v>147</v>
       </c>
@@ -2399,18 +2399,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="164" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="166"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
       <c r="M3" s="62"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
@@ -2418,10 +2418,10 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="161" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -2447,8 +2447,8 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -2622,10 +2622,10 @@
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="94"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -4080,14 +4080,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="155"/>
       <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
@@ -4102,28 +4102,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="164" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="166"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="161" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -4146,8 +4146,8 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -4314,10 +4314,10 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -4605,16 +4605,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="45.44140625" bestFit="1" customWidth="1"/>
@@ -4623,14 +4622,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
+      <c r="B2" s="153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="155"/>
       <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
@@ -4645,28 +4644,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="164" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="166"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="161" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -4675,7 +4674,9 @@
       <c r="E4" s="128">
         <v>45272</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="128">
+        <v>45276</v>
+      </c>
       <c r="G4" s="48"/>
       <c r="H4" s="55"/>
       <c r="I4" s="56"/>
@@ -4693,15 +4694,17 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="65"/>
+        <v>208</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>208</v>
+      </c>
       <c r="G5" s="65"/>
       <c r="H5" s="58"/>
       <c r="I5" s="59"/>
@@ -4731,7 +4734,9 @@
       <c r="E6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="G6" s="40"/>
       <c r="H6" s="52"/>
       <c r="I6" s="53"/>
@@ -4869,17 +4874,19 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="168"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="126" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="62"/>
+        <v>211</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>211</v>
+      </c>
       <c r="G12" s="62"/>
       <c r="M12" s="96"/>
       <c r="N12" s="62"/>
@@ -4890,7 +4897,7 @@
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
@@ -4953,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4964,8 +4971,7 @@
     <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -4976,16 +4982,16 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
       <c r="N2" s="98" t="s">
         <v>145</v>
       </c>
@@ -5000,29 +5006,29 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="164" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="165"/>
-      <c r="L3" s="166"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="164"/>
+      <c r="L3" s="165"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
       <c r="P3" s="96"/>
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5037,9 +5043,11 @@
       <c r="G4" s="128">
         <v>45272</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="151"/>
+      <c r="H4" s="128">
+        <v>45276</v>
+      </c>
+      <c r="I4" s="147"/>
+      <c r="J4" s="150"/>
       <c r="K4" s="115"/>
       <c r="L4" s="116"/>
       <c r="N4" s="123">
@@ -5054,8 +5062,8 @@
       <c r="Q4" s="124"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="61" t="s">
         <v>49</v>
       </c>
@@ -5063,14 +5071,16 @@
         <v>49</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="152"/>
+        <v>204</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="146"/>
+      <c r="J5" s="151"/>
       <c r="K5" s="59"/>
       <c r="L5" s="60"/>
       <c r="N5" s="123">
@@ -5103,8 +5113,10 @@
       <c r="G6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="149"/>
+      <c r="H6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="148"/>
       <c r="J6" s="52"/>
       <c r="K6" s="53"/>
       <c r="L6" s="54"/>
@@ -5118,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5143,7 @@
       <c r="F7" s="42"/>
       <c r="G7" s="49"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="150"/>
+      <c r="I7" s="149"/>
       <c r="J7" s="50"/>
       <c r="K7" s="42"/>
       <c r="L7" s="43"/>
@@ -5156,7 +5168,7 @@
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="150"/>
+      <c r="I8" s="149"/>
       <c r="J8" s="50"/>
       <c r="K8" s="42"/>
       <c r="L8" s="43"/>
@@ -5181,7 +5193,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="49"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="150"/>
+      <c r="I9" s="149"/>
       <c r="J9" s="50"/>
       <c r="K9" s="42"/>
       <c r="L9" s="43"/>
@@ -5206,7 +5218,7 @@
       <c r="F10" s="42"/>
       <c r="G10" s="49"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="150"/>
+      <c r="I10" s="149"/>
       <c r="J10" s="50"/>
       <c r="K10" s="42"/>
       <c r="L10" s="43"/>
@@ -5231,10 +5243,10 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="135"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="134"/>
       <c r="N11" s="123">
         <v>8</v>
       </c>
@@ -5247,27 +5259,29 @@
       <c r="Q11" s="124"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="62"/>
+        <v>213</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>216</v>
+      </c>
       <c r="I12" s="34"/>
-      <c r="J12" s="140"/>
+      <c r="J12" s="139"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="141"/>
+      <c r="L12" s="140"/>
       <c r="N12" s="96">
         <v>9</v>
       </c>
@@ -5280,7 +5294,7 @@
       <c r="Q12" s="62"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="140"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -5288,7 +5302,7 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="140"/>
+      <c r="J13" s="139"/>
       <c r="K13" s="62"/>
       <c r="L13" s="34"/>
       <c r="N13" s="96">
@@ -5303,7 +5317,7 @@
       <c r="Q13" s="62"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="140"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -5311,7 +5325,7 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="140"/>
+      <c r="J14" s="139"/>
       <c r="K14" s="62"/>
       <c r="L14" s="34"/>
       <c r="N14" s="96">
@@ -5326,16 +5340,16 @@
       <c r="Q14" s="62"/>
     </row>
     <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="142"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
       <c r="L15" s="36"/>
       <c r="N15" s="96">
         <v>12</v>
@@ -5389,7 +5403,7 @@
         <v>16</v>
       </c>
       <c r="O19" s="124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P19" s="123">
         <v>1</v>
@@ -5450,8 +5464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
   <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5467,19 +5481,20 @@
     <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
       <c r="M2" s="98" t="s">
         <v>145</v>
       </c>
@@ -5494,26 +5509,26 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="180"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="169" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5528,10 +5543,12 @@
       <c r="G4" s="128">
         <v>45272</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="138"/>
+      <c r="H4" s="128">
+        <v>45276</v>
+      </c>
+      <c r="I4" s="143"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="137"/>
       <c r="M4" s="123">
         <v>1</v>
       </c>
@@ -5544,24 +5561,26 @@
       <c r="P4" s="124"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="139"/>
+        <v>205</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="144"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="138"/>
       <c r="M5" s="123">
         <v>2</v>
       </c>
@@ -5592,7 +5611,9 @@
       <c r="G6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="I6" s="41"/>
       <c r="J6" s="42"/>
       <c r="K6" s="43"/>
@@ -5630,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="62" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -5706,15 +5727,15 @@
       <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="130">
+      <c r="B11" s="129">
         <v>6</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="63"/>
-      <c r="H11" s="134"/>
+      <c r="H11" s="133"/>
       <c r="I11" s="41"/>
       <c r="J11" s="42"/>
       <c r="K11" s="43"/>
@@ -5730,26 +5751,28 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="62"/>
+        <v>215</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>215</v>
+      </c>
       <c r="I12" s="127"/>
       <c r="J12" s="62"/>
-      <c r="K12" s="141"/>
+      <c r="K12" s="140"/>
       <c r="M12" s="96">
         <v>9</v>
       </c>
@@ -5762,12 +5785,12 @@
       <c r="P12" s="62"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="140"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
@@ -5786,7 +5809,7 @@
       <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="140"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -5808,15 +5831,15 @@
       <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="142"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="143"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="142"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">

--- a/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDFDD85-4345-4739-A665-CF99E7E84F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B74CACB-9766-431A-AC5F-D385E33A83F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
   <si>
     <t>Course</t>
   </si>
@@ -732,9 +732,6 @@
     <t>1) Laws of Motion</t>
   </si>
   <si>
-    <t>On Going</t>
-  </si>
-  <si>
     <t>Faculty: Avishek Adhikari     ||     Batch: B2: Booster JELET Crash Course Chemistry
 Timing: Thursday 2-6pm     ||     Start date: 07/Sep/2023</t>
   </si>
@@ -779,6 +776,18 @@
   </si>
   <si>
     <t>Straight Line finished</t>
+  </si>
+  <si>
+    <t>1) Laws Of Motion</t>
+  </si>
+  <si>
+    <t>This chapter is finished.</t>
+  </si>
+  <si>
+    <t>No class happened</t>
+  </si>
+  <si>
+    <t>for Maths</t>
   </si>
 </sst>
 </file>
@@ -968,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1515,7 +1524,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1525,23 +1534,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1550,7 +1544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1835,16 +1829,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,6 +1921,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2374,14 +2363,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="155"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
       <c r="M2" s="97" t="s">
         <v>147</v>
       </c>
@@ -2399,18 +2388,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="163" t="s">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="M3" s="62"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
@@ -2418,10 +2407,10 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="158" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -2447,8 +2436,8 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
-      <c r="C5" s="162"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="159"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -2622,10 +2611,10 @@
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="158"/>
+      <c r="C12" s="155"/>
       <c r="D12" s="94"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -4080,14 +4069,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="150" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="155"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
       <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
@@ -4102,28 +4091,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="163" t="s">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="158" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -4146,8 +4135,8 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
-      <c r="C5" s="162"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="159"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -4314,10 +4303,10 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="158"/>
+      <c r="C12" s="155"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -4606,7 +4595,7 @@
   <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4622,14 +4611,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="153" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="155"/>
+      <c r="B2" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
       <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
@@ -4644,28 +4633,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="163" t="s">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="162"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="158" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -4677,7 +4666,9 @@
       <c r="F4" s="128">
         <v>45276</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="128">
+        <v>45279</v>
+      </c>
       <c r="H4" s="55"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
@@ -4694,18 +4685,20 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
-      <c r="C5" s="162"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="159"/>
       <c r="D5" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="G5" s="65"/>
+        <v>207</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>207</v>
+      </c>
       <c r="H5" s="58"/>
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
@@ -4737,7 +4730,9 @@
       <c r="F6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="H6" s="52"/>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -4874,20 +4869,22 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="167"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="62"/>
+        <v>210</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>210</v>
+      </c>
       <c r="M12" s="96"/>
       <c r="N12" s="62"/>
       <c r="O12" s="96"/>
@@ -4897,7 +4894,7 @@
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
@@ -4960,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4972,7 +4969,7 @@
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
@@ -4982,16 +4979,16 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="170"/>
       <c r="N2" s="98" t="s">
         <v>145</v>
       </c>
@@ -5006,29 +5003,29 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="163" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="162"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
       <c r="P3" s="96"/>
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="166" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5046,8 +5043,10 @@
       <c r="H4" s="128">
         <v>45276</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="150"/>
+      <c r="I4" s="128">
+        <v>45279</v>
+      </c>
+      <c r="J4" s="147"/>
       <c r="K4" s="115"/>
       <c r="L4" s="116"/>
       <c r="N4" s="123">
@@ -5062,8 +5061,8 @@
       <c r="Q4" s="124"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
-      <c r="C5" s="162"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="159"/>
       <c r="D5" s="61" t="s">
         <v>49</v>
       </c>
@@ -5071,16 +5070,18 @@
         <v>49</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="146"/>
-      <c r="J5" s="151"/>
+        <v>203</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="148"/>
       <c r="K5" s="59"/>
       <c r="L5" s="60"/>
       <c r="N5" s="123">
@@ -5116,22 +5117,22 @@
       <c r="H6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="148"/>
+      <c r="I6" s="39" t="s">
+        <v>47</v>
+      </c>
       <c r="J6" s="52"/>
       <c r="K6" s="53"/>
       <c r="L6" s="54"/>
-      <c r="N6" s="96">
+      <c r="N6" s="123">
         <v>3</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="62" t="s">
-        <v>202</v>
-      </c>
+      <c r="P6" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="124"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
@@ -5143,7 +5144,7 @@
       <c r="F7" s="42"/>
       <c r="G7" s="49"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="149"/>
+      <c r="I7" s="146"/>
       <c r="J7" s="50"/>
       <c r="K7" s="42"/>
       <c r="L7" s="43"/>
@@ -5168,7 +5169,7 @@
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="149"/>
+      <c r="I8" s="146"/>
       <c r="J8" s="50"/>
       <c r="K8" s="42"/>
       <c r="L8" s="43"/>
@@ -5193,7 +5194,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="49"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="149"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="50"/>
       <c r="K9" s="42"/>
       <c r="L9" s="43"/>
@@ -5218,7 +5219,7 @@
       <c r="F10" s="42"/>
       <c r="G10" s="49"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="149"/>
+      <c r="I10" s="146"/>
       <c r="J10" s="50"/>
       <c r="K10" s="42"/>
       <c r="L10" s="43"/>
@@ -5243,8 +5244,8 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="152"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="149"/>
       <c r="K11" s="132"/>
       <c r="L11" s="134"/>
       <c r="N11" s="123">
@@ -5259,10 +5260,10 @@
       <c r="Q11" s="124"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="158"/>
+      <c r="C12" s="155"/>
       <c r="D12" s="62" t="s">
         <v>197</v>
       </c>
@@ -5270,15 +5271,17 @@
         <v>201</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="I12" s="34"/>
+        <v>215</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>217</v>
+      </c>
       <c r="J12" s="139"/>
       <c r="K12" s="62"/>
       <c r="L12" s="140"/>
@@ -5301,7 +5304,9 @@
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="34" t="s">
+        <v>218</v>
+      </c>
       <c r="J13" s="139"/>
       <c r="K13" s="62"/>
       <c r="L13" s="34"/>
@@ -5403,7 +5408,7 @@
         <v>16</v>
       </c>
       <c r="O19" s="124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P19" s="123">
         <v>1</v>
@@ -5417,7 +5422,7 @@
       </c>
       <c r="P21" s="125">
         <f>SUM(P4:P19)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q21" s="62"/>
     </row>
@@ -5438,7 +5443,7 @@
       </c>
       <c r="P23" s="125">
         <f>ROUND((P21/P22)*100,2)</f>
-        <v>43.75</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="62"/>
     </row>
@@ -5462,10 +5467,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
-  <dimension ref="B1:P18"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5476,59 +5481,63 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="171" t="s">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="M2" s="98" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
+      <c r="N2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="O2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="98" t="s">
+      <c r="P2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="Q2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="62"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="168" t="s">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="176"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="62"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="166" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5546,23 +5555,26 @@
       <c r="H4" s="128">
         <v>45276</v>
       </c>
-      <c r="I4" s="143"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="137"/>
-      <c r="M4" s="123">
+      <c r="I4" s="128">
+        <v>45279</v>
+      </c>
+      <c r="J4" s="143"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="137"/>
+      <c r="N4" s="123">
         <v>1</v>
       </c>
-      <c r="N4" s="124" t="s">
+      <c r="O4" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="O4" s="123">
+      <c r="P4" s="123">
         <v>1</v>
       </c>
-      <c r="P4" s="124"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
-      <c r="C5" s="162"/>
+      <c r="Q4" s="124"/>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="157"/>
+      <c r="C5" s="159"/>
       <c r="D5" s="61" t="s">
         <v>198</v>
       </c>
@@ -5570,29 +5582,32 @@
         <v>198</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" s="144"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="138"/>
-      <c r="M5" s="123">
+        <v>204</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="144"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="138"/>
+      <c r="N5" s="123">
         <v>2</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="O5" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="O5" s="123">
+      <c r="P5" s="123">
         <v>1</v>
       </c>
-      <c r="P5" s="124"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="124"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
@@ -5614,21 +5629,22 @@
       <c r="H6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43"/>
-      <c r="M6" s="123">
+      <c r="I6" s="39"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="N6" s="123">
         <v>3</v>
       </c>
-      <c r="N6" s="124" t="s">
+      <c r="O6" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="O6" s="123">
+      <c r="P6" s="123">
         <v>1</v>
       </c>
-      <c r="P6" s="124"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="124"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
@@ -5638,23 +5654,24 @@
       <c r="F7" s="42"/>
       <c r="G7" s="49"/>
       <c r="H7" s="62"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="M7" s="96">
+      <c r="I7" s="127"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="N7" s="96">
         <v>4</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="O7" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="O7" s="96">
-        <v>0</v>
-      </c>
-      <c r="P7" s="62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P7" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -5664,21 +5681,22 @@
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
       <c r="H8" s="62"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="M8" s="123">
+      <c r="I8" s="127"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="N8" s="123">
         <v>5</v>
       </c>
-      <c r="N8" s="124" t="s">
+      <c r="O8" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="123">
+      <c r="P8" s="123">
         <v>1</v>
       </c>
-      <c r="P8" s="124"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="124"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
@@ -5688,21 +5706,22 @@
       <c r="F9" s="42"/>
       <c r="G9" s="49"/>
       <c r="H9" s="62"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="M9" s="96">
+      <c r="I9" s="127"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="N9" s="96">
         <v>6</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="O9" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="O9" s="96">
-        <v>0</v>
-      </c>
-      <c r="P9" s="62"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P9" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
@@ -5712,21 +5731,22 @@
       <c r="F10" s="42"/>
       <c r="G10" s="49"/>
       <c r="H10" s="62"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="M10" s="96">
+      <c r="I10" s="127"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="N10" s="96">
         <v>7</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="O10" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="O10" s="96">
-        <v>0</v>
-      </c>
-      <c r="P10" s="62"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P10" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="62"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="129">
         <v>6</v>
       </c>
@@ -5736,25 +5756,26 @@
       <c r="F11" s="132"/>
       <c r="G11" s="63"/>
       <c r="H11" s="133"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="M11" s="96">
+      <c r="I11" s="177"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="N11" s="96">
         <v>8</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="O11" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="96">
-        <v>0</v>
-      </c>
-      <c r="P11" s="62"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="170" t="s">
+      <c r="P11" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="62"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="158"/>
+      <c r="C12" s="155"/>
       <c r="D12" s="62" t="s">
         <v>199</v>
       </c>
@@ -5762,53 +5783,59 @@
         <v>199</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="I12" s="127"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="140"/>
-      <c r="M12" s="96">
+        <v>214</v>
+      </c>
+      <c r="I12" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="127"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="140"/>
+      <c r="N12" s="96">
         <v>9</v>
       </c>
-      <c r="N12" s="62" t="s">
+      <c r="O12" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="O12" s="96">
-        <v>0</v>
-      </c>
-      <c r="P12" s="62"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P12" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="62"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="139"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="34"/>
-      <c r="M13" s="96">
+      <c r="I13" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" s="127"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="34"/>
+      <c r="N13" s="96">
         <v>10</v>
       </c>
-      <c r="N13" s="62" t="s">
+      <c r="O13" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="O13" s="96">
-        <v>0</v>
-      </c>
-      <c r="P13" s="62"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="62"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="139"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -5817,20 +5844,21 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="127"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="34"/>
-      <c r="M14" s="96">
+      <c r="J14" s="127"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="34"/>
+      <c r="N14" s="96">
         <v>11</v>
       </c>
-      <c r="N14" s="62" t="s">
+      <c r="O14" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="O14" s="96">
-        <v>0</v>
-      </c>
-      <c r="P14" s="62"/>
-    </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P14" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="62"/>
+    </row>
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="141"/>
       <c r="C15" s="142"/>
       <c r="D15" s="142"/>
@@ -5839,49 +5867,50 @@
       <c r="G15" s="142"/>
       <c r="H15" s="142"/>
       <c r="I15" s="145"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="96"/>
-      <c r="N16" s="64" t="s">
+      <c r="J15" s="145"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="96"/>
+      <c r="O16" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="O16" s="125">
-        <f>SUM(O4:O14)</f>
+      <c r="P16" s="125">
+        <f>SUM(P4:P14)</f>
         <v>4</v>
       </c>
-      <c r="P16" s="62"/>
-    </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M17" s="96"/>
-      <c r="N17" s="64" t="s">
+      <c r="Q16" s="62"/>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N17" s="96"/>
+      <c r="O17" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="O17" s="125">
-        <f>COUNT(O4:O14)</f>
+      <c r="P17" s="125">
+        <f>COUNT(P4:P14)</f>
         <v>11</v>
       </c>
-      <c r="P17" s="62"/>
-    </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M18" s="96"/>
-      <c r="N18" s="64" t="s">
+      <c r="Q17" s="62"/>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N18" s="96"/>
+      <c r="O18" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="O18" s="125">
-        <f>ROUND((O16/O17)*100,2)</f>
+      <c r="P18" s="125">
+        <f>ROUND((P16/P17)*100,2)</f>
         <v>36.36</v>
       </c>
-      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B2:I3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B74CACB-9766-431A-AC5F-D385E33A83F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F440593-7169-49DA-B698-0097B9453BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="226">
   <si>
     <t>Course</t>
   </si>
@@ -788,6 +788,21 @@
   </si>
   <si>
     <t>for Maths</t>
+  </si>
+  <si>
+    <t>1) Structure of Atoms</t>
+  </si>
+  <si>
+    <t>Doubt clearance on</t>
+  </si>
+  <si>
+    <t>numericals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doubt clearing on vector </t>
+  </si>
+  <si>
+    <t>algebra</t>
   </si>
 </sst>
 </file>
@@ -977,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1521,19 +1536,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1544,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1829,18 +1831,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1922,9 +1913,31 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2363,14 +2376,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
       <c r="M2" s="97" t="s">
         <v>147</v>
       </c>
@@ -2388,18 +2401,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="160" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
       <c r="M3" s="62"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
@@ -2407,10 +2420,10 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="155" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -2436,8 +2449,8 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
-      <c r="C5" s="159"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -2611,10 +2624,10 @@
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="94"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -4069,14 +4082,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
       <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
@@ -4091,28 +4104,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="160" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="155" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -4135,8 +4148,8 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
-      <c r="C5" s="159"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -4303,10 +4316,10 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -4592,10 +4605,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
-  <dimension ref="B1:P16"/>
+  <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4603,58 +4616,61 @@
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="150" t="s">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
-      <c r="M2" s="125" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
+      <c r="N2" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="64" t="s">
+      <c r="O2" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="P2" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="Q2" s="64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="160" t="s">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="62"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="156" t="s">
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="62"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="155" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -4669,24 +4685,27 @@
       <c r="G4" s="128">
         <v>45279</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="128">
+        <v>45286</v>
+      </c>
+      <c r="I4" s="55"/>
       <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-      <c r="M4" s="96">
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
+      <c r="N4" s="96">
         <v>1</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="O4" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="96">
-        <v>0</v>
-      </c>
-      <c r="P4" s="62"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
-      <c r="C5" s="159"/>
+      <c r="P4" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="62"/>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="61" t="s">
         <v>207</v>
       </c>
@@ -4699,22 +4718,25 @@
       <c r="G5" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
+      <c r="H5" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="58"/>
       <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
-      <c r="M5" s="123">
+      <c r="K5" s="59"/>
+      <c r="L5" s="60"/>
+      <c r="N5" s="123">
         <v>2</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="O5" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="123">
+      <c r="P5" s="123">
         <v>1</v>
       </c>
-      <c r="P5" s="62"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="62"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
@@ -4733,22 +4755,25 @@
       <c r="G6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="52"/>
       <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-      <c r="M6" s="96">
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="N6" s="96">
         <v>3</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="O6" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="O6" s="96">
-        <v>0</v>
-      </c>
-      <c r="P6" s="62"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P6" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="62"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
@@ -4757,22 +4782,23 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="42"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="M7" s="96">
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="N7" s="96">
         <v>4</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="O7" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="O7" s="96">
-        <v>0</v>
-      </c>
-      <c r="P7" s="62"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P7" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="62"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -4781,22 +4807,23 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="M8" s="96">
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="N8" s="123">
         <v>5</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="O8" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="O8" s="96">
-        <v>0</v>
-      </c>
-      <c r="P8" s="62"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P8" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="62"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
@@ -4805,22 +4832,23 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="42"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="M9" s="96">
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="N9" s="96">
         <v>6</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="O9" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="O9" s="96">
-        <v>0</v>
-      </c>
-      <c r="P9" s="62"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P9" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
@@ -4829,22 +4857,23 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="42"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="M10" s="96">
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="N10" s="96">
         <v>7</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="O10" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="96">
-        <v>0</v>
-      </c>
-      <c r="P10" s="62"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="62"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="35">
         <v>6</v>
       </c>
@@ -4853,26 +4882,27 @@
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
       <c r="G11" s="108"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="M11" s="96">
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="N11" s="96">
         <v>8</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="O11" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="O11" s="96">
-        <v>0</v>
-      </c>
-      <c r="P11" s="62"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="163" t="s">
+      <c r="P11" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="62"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="164"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="126" t="s">
         <v>208</v>
       </c>
@@ -4885,12 +4915,15 @@
       <c r="G12" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="M12" s="96"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="62"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H12" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="N12" s="96"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="62"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62" t="s">
@@ -4899,52 +4932,54 @@
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="64" t="s">
+      <c r="H13" s="62"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="125">
-        <f>SUM(O4:O11)</f>
-        <v>1</v>
-      </c>
-      <c r="P13" s="62"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="125">
+        <f>SUM(P4:P11)</f>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="62"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="64" t="s">
+      <c r="H14" s="62"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="O14" s="125">
-        <f>COUNT(O4:O11)</f>
+      <c r="P14" s="125">
+        <f>COUNT(P4:P11)</f>
         <v>8</v>
       </c>
-      <c r="P14" s="62"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M15" s="96"/>
-      <c r="N15" s="64" t="s">
+      <c r="Q14" s="62"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N15" s="96"/>
+      <c r="O15" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="O15" s="125">
-        <f>ROUND((O13/O14)*100,2)</f>
-        <v>12.5</v>
-      </c>
-      <c r="P15" s="62"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M16" s="95"/>
-      <c r="O16" s="95"/>
+      <c r="P15" s="125">
+        <f>ROUND((P13/P14)*100,2)</f>
+        <v>25</v>
+      </c>
+      <c r="Q15" s="62"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="95"/>
+      <c r="P16" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
@@ -4955,10 +4990,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
-  <dimension ref="B1:Q24"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4969,63 +5004,66 @@
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="168" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="170"/>
-      <c r="N2" s="98" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="167"/>
+      <c r="O2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="P2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="Q2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="R2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="160" t="s">
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="157" t="s">
         <v>200</v>
       </c>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="62"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="165" t="s">
+      <c r="L3" s="158"/>
+      <c r="M3" s="159"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="62"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="163" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5043,26 +5081,29 @@
       <c r="H4" s="128">
         <v>45276</v>
       </c>
-      <c r="I4" s="128">
+      <c r="I4" s="182">
         <v>45279</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
-      <c r="N4" s="123">
+      <c r="J4" s="182">
+        <v>45286</v>
+      </c>
+      <c r="K4" s="179"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
+      <c r="O4" s="123">
         <v>1</v>
       </c>
-      <c r="O4" s="124" t="s">
+      <c r="P4" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="123">
+      <c r="Q4" s="123">
         <v>1</v>
       </c>
-      <c r="Q4" s="124"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
-      <c r="C5" s="159"/>
+      <c r="R4" s="124"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="61" t="s">
         <v>49</v>
       </c>
@@ -5078,24 +5119,27 @@
       <c r="H5" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="183" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="148"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="60"/>
-      <c r="N5" s="123">
+      <c r="J5" s="183" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="180"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="123">
         <v>2</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="P5" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="P5" s="123">
+      <c r="Q5" s="123">
         <v>1</v>
       </c>
-      <c r="Q5" s="124"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="124"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
@@ -5117,24 +5161,27 @@
       <c r="H6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="N6" s="123">
+      <c r="J6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="181"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="O6" s="123">
         <v>3</v>
       </c>
-      <c r="O6" s="124" t="s">
+      <c r="P6" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="123">
+      <c r="Q6" s="123">
         <v>1</v>
       </c>
-      <c r="Q6" s="124"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="124"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
@@ -5144,22 +5191,23 @@
       <c r="F7" s="42"/>
       <c r="G7" s="49"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="N7" s="123">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="O7" s="123">
         <v>4</v>
       </c>
-      <c r="O7" s="124" t="s">
+      <c r="P7" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="P7" s="123">
+      <c r="Q7" s="123">
         <v>1</v>
       </c>
-      <c r="Q7" s="124"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="124"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -5169,22 +5217,23 @@
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="N8" s="96">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="O8" s="96">
         <v>5</v>
       </c>
-      <c r="O8" s="62" t="s">
+      <c r="P8" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="P8" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="62"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q8" s="96">
+        <v>0</v>
+      </c>
+      <c r="R8" s="62"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
@@ -5194,22 +5243,23 @@
       <c r="F9" s="42"/>
       <c r="G9" s="49"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="N9" s="123">
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="O9" s="123">
         <v>6</v>
       </c>
-      <c r="O9" s="124" t="s">
+      <c r="P9" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="P9" s="123">
+      <c r="Q9" s="123">
         <v>1</v>
       </c>
-      <c r="Q9" s="124"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="124"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
@@ -5219,22 +5269,23 @@
       <c r="F10" s="42"/>
       <c r="G10" s="49"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="N10" s="123">
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="O10" s="123">
         <v>7</v>
       </c>
-      <c r="O10" s="124" t="s">
+      <c r="P10" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="P10" s="123">
+      <c r="Q10" s="123">
         <v>1</v>
       </c>
-      <c r="Q10" s="124"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="124"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>6</v>
       </c>
@@ -5244,26 +5295,27 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="134"/>
-      <c r="N11" s="123">
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="134"/>
+      <c r="O11" s="123">
         <v>8</v>
       </c>
-      <c r="O11" s="124" t="s">
+      <c r="P11" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="P11" s="123">
+      <c r="Q11" s="123">
         <v>1</v>
       </c>
-      <c r="Q11" s="124"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="167" t="s">
+      <c r="R11" s="124"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="62" t="s">
         <v>197</v>
       </c>
@@ -5279,24 +5331,27 @@
       <c r="H12" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="J12" s="139"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="140"/>
-      <c r="N12" s="96">
+      <c r="J12" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="127"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="140"/>
+      <c r="O12" s="96">
         <v>9</v>
       </c>
-      <c r="O12" s="62" t="s">
+      <c r="P12" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="P12" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="62"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q12" s="96">
+        <v>0</v>
+      </c>
+      <c r="R12" s="62"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="139"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -5304,24 +5359,27 @@
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="139"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="34"/>
-      <c r="N13" s="96">
+      <c r="J13" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="127"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="34"/>
+      <c r="O13" s="96">
         <v>10</v>
       </c>
-      <c r="O13" s="62" t="s">
+      <c r="P13" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="62"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q13" s="96">
+        <v>0</v>
+      </c>
+      <c r="R13" s="62"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="139"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -5329,22 +5387,25 @@
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="34"/>
-      <c r="N14" s="96">
+      <c r="I14" s="177"/>
+      <c r="J14" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="139"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="34"/>
+      <c r="O14" s="96">
         <v>11</v>
       </c>
-      <c r="O14" s="62" t="s">
+      <c r="P14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="62"/>
-    </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="96">
+        <v>0</v>
+      </c>
+      <c r="R14" s="62"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="141"/>
       <c r="C15" s="142"/>
       <c r="D15" s="142"/>
@@ -5352,113 +5413,114 @@
       <c r="F15" s="142"/>
       <c r="G15" s="142"/>
       <c r="H15" s="142"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="36"/>
-      <c r="N15" s="96">
+      <c r="I15" s="178"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="36"/>
+      <c r="O15" s="96">
         <v>12</v>
       </c>
-      <c r="O15" s="62" t="s">
+      <c r="P15" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="P15" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="62"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="96">
+      <c r="Q15" s="96">
+        <v>0</v>
+      </c>
+      <c r="R15" s="62"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O16" s="96">
         <v>13</v>
       </c>
-      <c r="O16" s="62" t="s">
+      <c r="P16" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="62"/>
-    </row>
-    <row r="17" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N17" s="96">
+      <c r="Q16" s="96">
+        <v>0</v>
+      </c>
+      <c r="R16" s="62"/>
+    </row>
+    <row r="17" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="O17" s="96">
         <v>14</v>
       </c>
-      <c r="O17" s="62" t="s">
+      <c r="P17" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="P17" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="62"/>
-    </row>
-    <row r="18" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="96">
+      <c r="Q17" s="96">
+        <v>0</v>
+      </c>
+      <c r="R17" s="62"/>
+    </row>
+    <row r="18" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="O18" s="96">
         <v>15</v>
       </c>
-      <c r="O18" s="62" t="s">
+      <c r="P18" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="P18" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="62"/>
-    </row>
-    <row r="19" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N19" s="123">
+      <c r="Q18" s="96">
+        <v>0</v>
+      </c>
+      <c r="R18" s="62"/>
+    </row>
+    <row r="19" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="O19" s="123">
         <v>16</v>
       </c>
-      <c r="O19" s="124" t="s">
+      <c r="P19" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="P19" s="123">
+      <c r="Q19" s="123">
         <v>1</v>
       </c>
-      <c r="Q19" s="124"/>
-    </row>
-    <row r="21" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N21" s="96"/>
-      <c r="O21" s="64" t="s">
+      <c r="R19" s="124"/>
+    </row>
+    <row r="21" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="O21" s="96"/>
+      <c r="P21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="P21" s="125">
-        <f>SUM(P4:P19)</f>
+      <c r="Q21" s="125">
+        <f>SUM(Q4:Q19)</f>
         <v>8</v>
       </c>
-      <c r="Q21" s="62"/>
-    </row>
-    <row r="22" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N22" s="96"/>
-      <c r="O22" s="64" t="s">
+      <c r="R21" s="62"/>
+    </row>
+    <row r="22" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="O22" s="96"/>
+      <c r="P22" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="125">
+      <c r="Q22" s="125">
         <v>16</v>
       </c>
-      <c r="Q22" s="62"/>
-    </row>
-    <row r="23" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="N23" s="96"/>
-      <c r="O23" s="64" t="s">
+      <c r="R22" s="62"/>
+    </row>
+    <row r="23" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="O23" s="96"/>
+      <c r="P23" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="P23" s="125">
-        <f>ROUND((P21/P22)*100,2)</f>
+      <c r="Q23" s="125">
+        <f>ROUND((Q21/Q22)*100,2)</f>
         <v>50</v>
       </c>
-      <c r="Q23" s="62"/>
-    </row>
-    <row r="24" spans="12:17" x14ac:dyDescent="0.3">
-      <c r="L24" t="s">
+      <c r="R23" s="62"/>
+    </row>
+    <row r="24" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5467,10 +5529,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
-  <dimension ref="B1:Q18"/>
+  <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5483,61 +5545,64 @@
     <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="150" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="152"/>
-      <c r="N2" s="98" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
+      <c r="O2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="P2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="98" t="s">
+      <c r="Q2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="R2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="178"/>
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="176"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="62"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="165" t="s">
+      <c r="K3" s="171"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="173"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="62"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="163" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5558,23 +5623,26 @@
       <c r="I4" s="128">
         <v>45279</v>
       </c>
-      <c r="J4" s="143"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="137"/>
-      <c r="N4" s="123">
+      <c r="J4" s="128">
+        <v>45286</v>
+      </c>
+      <c r="K4" s="143"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="137"/>
+      <c r="O4" s="123">
         <v>1</v>
       </c>
-      <c r="O4" s="124" t="s">
+      <c r="P4" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="P4" s="123">
+      <c r="Q4" s="123">
         <v>1</v>
       </c>
-      <c r="Q4" s="124"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="157"/>
-      <c r="C5" s="159"/>
+      <c r="R4" s="124"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="61" t="s">
         <v>198</v>
       </c>
@@ -5593,21 +5661,24 @@
       <c r="I5" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="144"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="138"/>
-      <c r="N5" s="123">
+      <c r="J5" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="144"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="138"/>
+      <c r="O5" s="123">
         <v>2</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="P5" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="P5" s="123">
+      <c r="Q5" s="123">
         <v>1</v>
       </c>
-      <c r="Q5" s="124"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="124"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
@@ -5630,21 +5701,24 @@
         <v>47</v>
       </c>
       <c r="I6" s="39"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="N6" s="123">
+      <c r="J6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="O6" s="123">
         <v>3</v>
       </c>
-      <c r="O6" s="124" t="s">
+      <c r="P6" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="P6" s="123">
+      <c r="Q6" s="123">
         <v>1</v>
       </c>
-      <c r="Q6" s="124"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="124"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
@@ -5655,23 +5729,24 @@
       <c r="G7" s="49"/>
       <c r="H7" s="62"/>
       <c r="I7" s="127"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="N7" s="96">
+      <c r="J7" s="127"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="O7" s="96">
         <v>4</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="P7" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="62" t="s">
+      <c r="Q7" s="96">
+        <v>0</v>
+      </c>
+      <c r="R7" s="62" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -5682,21 +5757,22 @@
       <c r="G8" s="49"/>
       <c r="H8" s="62"/>
       <c r="I8" s="127"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="N8" s="123">
+      <c r="J8" s="127"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="O8" s="123">
         <v>5</v>
       </c>
-      <c r="O8" s="124" t="s">
+      <c r="P8" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="123">
+      <c r="Q8" s="123">
         <v>1</v>
       </c>
-      <c r="Q8" s="124"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="124"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
@@ -5707,21 +5783,22 @@
       <c r="G9" s="49"/>
       <c r="H9" s="62"/>
       <c r="I9" s="127"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="N9" s="96">
+      <c r="J9" s="127"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="O9" s="96">
         <v>6</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="P9" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="62"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q9" s="96">
+        <v>0</v>
+      </c>
+      <c r="R9" s="62"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
@@ -5732,21 +5809,22 @@
       <c r="G10" s="49"/>
       <c r="H10" s="62"/>
       <c r="I10" s="127"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="N10" s="96">
+      <c r="J10" s="127"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="O10" s="96">
         <v>7</v>
       </c>
-      <c r="O10" s="62" t="s">
+      <c r="P10" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="P10" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="62"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q10" s="96">
+        <v>0</v>
+      </c>
+      <c r="R10" s="62"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="129">
         <v>6</v>
       </c>
@@ -5756,26 +5834,27 @@
       <c r="F11" s="132"/>
       <c r="G11" s="63"/>
       <c r="H11" s="133"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="N11" s="96">
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="O11" s="96">
         <v>8</v>
       </c>
-      <c r="O11" s="62" t="s">
+      <c r="P11" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="P11" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="62"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="167" t="s">
+      <c r="Q11" s="96">
+        <v>0</v>
+      </c>
+      <c r="R11" s="62"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="62" t="s">
         <v>199</v>
       </c>
@@ -5794,21 +5873,24 @@
       <c r="I12" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="J12" s="127"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="140"/>
-      <c r="N12" s="96">
+      <c r="J12" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" s="127"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="140"/>
+      <c r="O12" s="96">
         <v>9</v>
       </c>
-      <c r="O12" s="62" t="s">
+      <c r="P12" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="P12" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="62"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q12" s="96">
+        <v>0</v>
+      </c>
+      <c r="R12" s="62"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="139"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -5821,21 +5903,24 @@
       <c r="I13" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="34"/>
-      <c r="N13" s="96">
+      <c r="J13" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="127"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="34"/>
+      <c r="O13" s="96">
         <v>10</v>
       </c>
-      <c r="O13" s="62" t="s">
+      <c r="P13" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="P13" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="62"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q13" s="96">
+        <v>0</v>
+      </c>
+      <c r="R13" s="62"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="139"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -5844,21 +5929,24 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="34"/>
-      <c r="N14" s="96">
+      <c r="J14" s="127" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="127"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="34"/>
+      <c r="O14" s="96">
         <v>11</v>
       </c>
-      <c r="O14" s="62" t="s">
+      <c r="P14" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="P14" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="62"/>
-    </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="96">
+        <v>0</v>
+      </c>
+      <c r="R14" s="62"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="141"/>
       <c r="C15" s="142"/>
       <c r="D15" s="142"/>
@@ -5868,49 +5956,50 @@
       <c r="H15" s="142"/>
       <c r="I15" s="145"/>
       <c r="J15" s="145"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="96"/>
-      <c r="O16" s="64" t="s">
+      <c r="K15" s="145"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O16" s="96"/>
+      <c r="P16" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="P16" s="125">
-        <f>SUM(P4:P14)</f>
+      <c r="Q16" s="125">
+        <f>SUM(Q4:Q14)</f>
         <v>4</v>
       </c>
-      <c r="Q16" s="62"/>
-    </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N17" s="96"/>
-      <c r="O17" s="64" t="s">
+      <c r="R16" s="62"/>
+    </row>
+    <row r="17" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O17" s="96"/>
+      <c r="P17" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="P17" s="125">
-        <f>COUNT(P4:P14)</f>
+      <c r="Q17" s="125">
+        <f>COUNT(Q4:Q14)</f>
         <v>11</v>
       </c>
-      <c r="Q17" s="62"/>
-    </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="96"/>
-      <c r="O18" s="64" t="s">
+      <c r="R17" s="62"/>
+    </row>
+    <row r="18" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O18" s="96"/>
+      <c r="P18" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="P18" s="125">
-        <f>ROUND((P16/P17)*100,2)</f>
+      <c r="Q18" s="125">
+        <f>ROUND((Q16/Q17)*100,2)</f>
         <v>36.36</v>
       </c>
-      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B2:J3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F440593-7169-49DA-B698-0097B9453BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE78C2C9-3A10-4FF1-8AF6-1392DADA06EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="6" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="230">
   <si>
     <t>Course</t>
   </si>
@@ -803,6 +803,18 @@
   </si>
   <si>
     <t>algebra</t>
+  </si>
+  <si>
+    <t>&amp;Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>exams</t>
+  </si>
+  <si>
+    <t>Doubt clearance for</t>
+  </si>
+  <si>
+    <t>algebra for exam</t>
   </si>
 </sst>
 </file>
@@ -1832,96 +1844,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1938,6 +1860,96 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2376,14 +2388,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
       <c r="M2" s="97" t="s">
         <v>147</v>
       </c>
@@ -2401,18 +2413,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="157" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
       <c r="M3" s="62"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
@@ -2420,10 +2432,10 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -2449,8 +2461,8 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="154"/>
-      <c r="C5" s="156"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -2624,10 +2636,10 @@
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="94"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -4082,14 +4094,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
       <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
@@ -4104,28 +4116,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="157" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -4148,8 +4160,8 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="154"/>
-      <c r="C5" s="156"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -4316,10 +4328,10 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -4605,10 +4617,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A980A2-087E-4BDA-864D-B7CC763A9F65}">
-  <dimension ref="B1:Q16"/>
+  <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4616,61 +4628,63 @@
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="147" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
-      <c r="N2" s="125" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="156"/>
+      <c r="O2" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="P2" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="125" t="s">
+      <c r="Q2" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="Q2" s="64" t="s">
+      <c r="R2" s="64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="157" t="s">
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="62"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="153" t="s">
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="166"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="62"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -4688,24 +4702,27 @@
       <c r="H4" s="128">
         <v>45286</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="128">
+        <v>45288</v>
+      </c>
+      <c r="J4" s="55"/>
       <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
-      <c r="N4" s="96">
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="O4" s="96">
         <v>1</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="P4" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="P4" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="62"/>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="154"/>
-      <c r="C5" s="156"/>
+      <c r="Q4" s="96">
+        <v>0</v>
+      </c>
+      <c r="R4" s="62"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="61" t="s">
         <v>207</v>
       </c>
@@ -4721,22 +4738,25 @@
       <c r="H5" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="I5" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="58"/>
       <c r="K5" s="59"/>
-      <c r="L5" s="60"/>
-      <c r="N5" s="123">
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="O5" s="123">
         <v>2</v>
       </c>
-      <c r="O5" s="124" t="s">
+      <c r="P5" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="123">
+      <c r="Q5" s="123">
         <v>1</v>
       </c>
-      <c r="Q5" s="62"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="62"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
@@ -4758,22 +4778,25 @@
       <c r="H6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="52"/>
       <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="N6" s="96">
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="O6" s="96">
         <v>3</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="P6" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="P6" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="62"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="96">
+        <v>0</v>
+      </c>
+      <c r="R6" s="62"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
@@ -4783,22 +4806,23 @@
       <c r="F7" s="42"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="42"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="N7" s="96">
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="O7" s="96">
         <v>4</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="P7" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="P7" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="62"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q7" s="96">
+        <v>0</v>
+      </c>
+      <c r="R7" s="62"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -4808,22 +4832,23 @@
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="42"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="N8" s="123">
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="O8" s="123">
         <v>5</v>
       </c>
-      <c r="O8" s="124" t="s">
+      <c r="P8" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="123">
+      <c r="Q8" s="123">
         <v>1</v>
       </c>
-      <c r="Q8" s="62"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="62"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
@@ -4833,22 +4858,23 @@
       <c r="F9" s="42"/>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="42"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="N9" s="96">
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="O9" s="96">
         <v>6</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="P9" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="P9" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="62"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q9" s="96">
+        <v>0</v>
+      </c>
+      <c r="R9" s="62"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
@@ -4858,22 +4884,23 @@
       <c r="F10" s="42"/>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="42"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="N10" s="96">
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="O10" s="96">
         <v>7</v>
       </c>
-      <c r="O10" s="62" t="s">
+      <c r="P10" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="P10" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="62"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="96">
+        <v>0</v>
+      </c>
+      <c r="R10" s="62"/>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="35">
         <v>6</v>
       </c>
@@ -4883,26 +4910,27 @@
       <c r="F11" s="45"/>
       <c r="G11" s="108"/>
       <c r="H11" s="108"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="45"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="N11" s="96">
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="O11" s="96">
         <v>8</v>
       </c>
-      <c r="O11" s="62" t="s">
+      <c r="P11" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="P11" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="62"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="160" t="s">
+      <c r="Q11" s="96">
+        <v>0</v>
+      </c>
+      <c r="R11" s="62"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="161"/>
+      <c r="C12" s="168"/>
       <c r="D12" s="126" t="s">
         <v>208</v>
       </c>
@@ -4918,12 +4946,15 @@
       <c r="H12" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="N12" s="96"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="62"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I12" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="O12" s="96"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="62"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62" t="s">
@@ -4933,17 +4964,18 @@
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="64" t="s">
+      <c r="I13" s="62"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="P13" s="125">
-        <f>SUM(P4:P11)</f>
+      <c r="Q13" s="125">
+        <f>SUM(Q4:Q11)</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="62"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="62"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -4951,35 +4983,36 @@
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="64" t="s">
+      <c r="I14" s="62"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="P14" s="125">
-        <f>COUNT(P4:P11)</f>
+      <c r="Q14" s="125">
+        <f>COUNT(Q4:Q11)</f>
         <v>8</v>
       </c>
-      <c r="Q14" s="62"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N15" s="96"/>
-      <c r="O15" s="64" t="s">
+      <c r="R14" s="62"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O15" s="96"/>
+      <c r="P15" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="P15" s="125">
-        <f>ROUND((P13/P14)*100,2)</f>
+      <c r="Q15" s="125">
+        <f>ROUND((Q13/Q14)*100,2)</f>
         <v>25</v>
       </c>
-      <c r="Q15" s="62"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N16" s="95"/>
-      <c r="P16" s="95"/>
+      <c r="R15" s="62"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O16" s="95"/>
+      <c r="Q16" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
@@ -4990,10 +5023,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
-  <dimension ref="B1:R24"/>
+  <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5005,65 +5038,68 @@
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="165" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="172" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="167"/>
-      <c r="O2" s="98" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="175"/>
+      <c r="P2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="Q2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="R2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="97" t="s">
+      <c r="S2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="157" t="s">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="164" t="s">
         <v>200</v>
       </c>
-      <c r="L3" s="158"/>
-      <c r="M3" s="159"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="62"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="162" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="62"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="170" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5081,29 +5117,32 @@
       <c r="H4" s="128">
         <v>45276</v>
       </c>
-      <c r="I4" s="182">
+      <c r="I4" s="152">
         <v>45279</v>
       </c>
-      <c r="J4" s="182">
+      <c r="J4" s="152">
         <v>45286</v>
       </c>
-      <c r="K4" s="179"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="116"/>
-      <c r="O4" s="123">
+      <c r="K4" s="152">
+        <v>45288</v>
+      </c>
+      <c r="L4" s="149"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="116"/>
+      <c r="P4" s="123">
         <v>1</v>
       </c>
-      <c r="P4" s="124" t="s">
+      <c r="Q4" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="R4" s="123">
         <v>1</v>
       </c>
-      <c r="R4" s="124"/>
-    </row>
-    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="154"/>
-      <c r="C5" s="156"/>
+      <c r="S4" s="124"/>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="61" t="s">
         <v>49</v>
       </c>
@@ -5119,27 +5158,30 @@
       <c r="H5" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="183" t="s">
+      <c r="I5" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="183" t="s">
+      <c r="J5" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="K5" s="180"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
-      <c r="O5" s="123">
+      <c r="K5" s="153" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="150"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="60"/>
+      <c r="P5" s="123">
         <v>2</v>
       </c>
-      <c r="P5" s="124" t="s">
+      <c r="Q5" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="Q5" s="123">
+      <c r="R5" s="123">
         <v>1</v>
       </c>
-      <c r="R5" s="124"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="124"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
@@ -5167,21 +5209,24 @@
       <c r="J6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="181"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-      <c r="O6" s="123">
+      <c r="K6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="151"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="P6" s="123">
         <v>3</v>
       </c>
-      <c r="P6" s="124" t="s">
+      <c r="Q6" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="Q6" s="123">
+      <c r="R6" s="123">
         <v>1</v>
       </c>
-      <c r="R6" s="124"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="124"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
@@ -5193,21 +5238,22 @@
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="O7" s="123">
+      <c r="K7" s="42"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="43"/>
+      <c r="P7" s="123">
         <v>4</v>
       </c>
-      <c r="P7" s="124" t="s">
+      <c r="Q7" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="Q7" s="123">
+      <c r="R7" s="123">
         <v>1</v>
       </c>
-      <c r="R7" s="124"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="124"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -5219,21 +5265,22 @@
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
-      <c r="O8" s="96">
+      <c r="K8" s="42"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="P8" s="96">
         <v>5</v>
       </c>
-      <c r="P8" s="62" t="s">
+      <c r="Q8" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="Q8" s="96">
-        <v>0</v>
-      </c>
-      <c r="R8" s="62"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R8" s="96">
+        <v>0</v>
+      </c>
+      <c r="S8" s="62"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
@@ -5245,21 +5292,22 @@
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="O9" s="123">
+      <c r="K9" s="42"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="P9" s="123">
         <v>6</v>
       </c>
-      <c r="P9" s="124" t="s">
+      <c r="Q9" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="Q9" s="123">
+      <c r="R9" s="123">
         <v>1</v>
       </c>
-      <c r="R9" s="124"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="124"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
@@ -5271,21 +5319,22 @@
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="O10" s="123">
+      <c r="K10" s="42"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="P10" s="123">
         <v>7</v>
       </c>
-      <c r="P10" s="124" t="s">
+      <c r="Q10" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="Q10" s="123">
+      <c r="R10" s="123">
         <v>1</v>
       </c>
-      <c r="R10" s="124"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="124"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="33">
         <v>6</v>
       </c>
@@ -5297,25 +5346,26 @@
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="134"/>
-      <c r="O11" s="123">
+      <c r="K11" s="42"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="134"/>
+      <c r="P11" s="123">
         <v>8</v>
       </c>
-      <c r="P11" s="124" t="s">
+      <c r="Q11" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="Q11" s="123">
+      <c r="R11" s="123">
         <v>1</v>
       </c>
-      <c r="R11" s="124"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="164" t="s">
+      <c r="S11" s="124"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="62" t="s">
         <v>197</v>
       </c>
@@ -5337,21 +5387,24 @@
       <c r="J12" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="127"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="140"/>
-      <c r="O12" s="96">
+      <c r="K12" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="127"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="140"/>
+      <c r="P12" s="96">
         <v>9</v>
       </c>
-      <c r="P12" s="62" t="s">
+      <c r="Q12" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="Q12" s="96">
-        <v>0</v>
-      </c>
-      <c r="R12" s="62"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R12" s="96">
+        <v>0</v>
+      </c>
+      <c r="S12" s="62"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="139"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -5365,21 +5418,24 @@
       <c r="J13" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="127"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="34"/>
-      <c r="O13" s="96">
+      <c r="K13" t="s">
+        <v>226</v>
+      </c>
+      <c r="L13" s="127"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="34"/>
+      <c r="P13" s="96">
         <v>10</v>
       </c>
-      <c r="P13" s="62" t="s">
+      <c r="Q13" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="Q13" s="96">
-        <v>0</v>
-      </c>
-      <c r="R13" s="62"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R13" s="96">
+        <v>0</v>
+      </c>
+      <c r="S13" s="62"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="139"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -5387,25 +5443,28 @@
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
-      <c r="I14" s="177"/>
+      <c r="I14" s="147"/>
       <c r="J14" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="34"/>
-      <c r="O14" s="96">
+      <c r="K14" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="139"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="34"/>
+      <c r="P14" s="96">
         <v>11</v>
       </c>
-      <c r="P14" s="62" t="s">
+      <c r="Q14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="Q14" s="96">
-        <v>0</v>
-      </c>
-      <c r="R14" s="62"/>
-    </row>
-    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="96">
+        <v>0</v>
+      </c>
+      <c r="S14" s="62"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="141"/>
       <c r="C15" s="142"/>
       <c r="D15" s="142"/>
@@ -5413,114 +5472,117 @@
       <c r="F15" s="142"/>
       <c r="G15" s="142"/>
       <c r="H15" s="142"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="36"/>
-      <c r="O15" s="96">
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="L15" s="141"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="36"/>
+      <c r="P15" s="96">
         <v>12</v>
       </c>
-      <c r="P15" s="62" t="s">
+      <c r="Q15" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="Q15" s="96">
-        <v>0</v>
-      </c>
-      <c r="R15" s="62"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="O16" s="96">
+      <c r="R15" s="96">
+        <v>0</v>
+      </c>
+      <c r="S15" s="62"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P16" s="96">
         <v>13</v>
       </c>
-      <c r="P16" s="62" t="s">
+      <c r="Q16" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="Q16" s="96">
-        <v>0</v>
-      </c>
-      <c r="R16" s="62"/>
-    </row>
-    <row r="17" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O17" s="96">
+      <c r="R16" s="96">
+        <v>0</v>
+      </c>
+      <c r="S16" s="62"/>
+    </row>
+    <row r="17" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P17" s="96">
         <v>14</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="Q17" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="Q17" s="96">
-        <v>0</v>
-      </c>
-      <c r="R17" s="62"/>
-    </row>
-    <row r="18" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O18" s="96">
+      <c r="R17" s="96">
+        <v>0</v>
+      </c>
+      <c r="S17" s="62"/>
+    </row>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P18" s="96">
         <v>15</v>
       </c>
-      <c r="P18" s="62" t="s">
+      <c r="Q18" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="Q18" s="96">
-        <v>0</v>
-      </c>
-      <c r="R18" s="62"/>
-    </row>
-    <row r="19" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O19" s="123">
+      <c r="R18" s="96">
+        <v>0</v>
+      </c>
+      <c r="S18" s="62"/>
+    </row>
+    <row r="19" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P19" s="123">
         <v>16</v>
       </c>
-      <c r="P19" s="124" t="s">
+      <c r="Q19" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="Q19" s="123">
+      <c r="R19" s="123">
         <v>1</v>
       </c>
-      <c r="R19" s="124"/>
-    </row>
-    <row r="21" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O21" s="96"/>
-      <c r="P21" s="64" t="s">
+      <c r="S19" s="124"/>
+    </row>
+    <row r="21" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P21" s="96"/>
+      <c r="Q21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="Q21" s="125">
-        <f>SUM(Q4:Q19)</f>
+      <c r="R21" s="125">
+        <f>SUM(R4:R19)</f>
         <v>8</v>
       </c>
-      <c r="R21" s="62"/>
-    </row>
-    <row r="22" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O22" s="96"/>
-      <c r="P22" s="64" t="s">
+      <c r="S21" s="62"/>
+    </row>
+    <row r="22" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P22" s="96"/>
+      <c r="Q22" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="Q22" s="125">
+      <c r="R22" s="125">
         <v>16</v>
       </c>
-      <c r="R22" s="62"/>
-    </row>
-    <row r="23" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="O23" s="96"/>
-      <c r="P23" s="64" t="s">
+      <c r="S22" s="62"/>
+    </row>
+    <row r="23" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="P23" s="96"/>
+      <c r="Q23" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="Q23" s="125">
-        <f>ROUND((Q21/Q22)*100,2)</f>
+      <c r="R23" s="125">
+        <f>ROUND((R21/R22)*100,2)</f>
         <v>50</v>
       </c>
-      <c r="R23" s="62"/>
-    </row>
-    <row r="24" spans="13:18" x14ac:dyDescent="0.3">
-      <c r="M24" t="s">
+      <c r="S23" s="62"/>
+    </row>
+    <row r="24" spans="14:19" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5529,10 +5591,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
-  <dimension ref="B1:R18"/>
+  <dimension ref="B1:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5544,65 +5606,67 @@
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="147" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
-      <c r="O2" s="98" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="156"/>
+      <c r="P2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="Q2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="R2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="97" t="s">
+      <c r="S2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="173"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="62"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="162" t="s">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="62"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="170" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5626,23 +5690,26 @@
       <c r="J4" s="128">
         <v>45286</v>
       </c>
-      <c r="K4" s="143"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="137"/>
-      <c r="O4" s="123">
+      <c r="K4" s="128">
+        <v>45288</v>
+      </c>
+      <c r="L4" s="143"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="137"/>
+      <c r="P4" s="123">
         <v>1</v>
       </c>
-      <c r="P4" s="124" t="s">
+      <c r="Q4" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="R4" s="123">
         <v>1</v>
       </c>
-      <c r="R4" s="124"/>
-    </row>
-    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="154"/>
-      <c r="C5" s="156"/>
+      <c r="S4" s="124"/>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="161"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="61" t="s">
         <v>198</v>
       </c>
@@ -5664,21 +5731,24 @@
       <c r="J5" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="144"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="138"/>
-      <c r="O5" s="123">
+      <c r="K5" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="144"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="138"/>
+      <c r="P5" s="123">
         <v>2</v>
       </c>
-      <c r="P5" s="124" t="s">
+      <c r="Q5" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="Q5" s="123">
+      <c r="R5" s="123">
         <v>1</v>
       </c>
-      <c r="R5" s="124"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="124"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
@@ -5704,21 +5774,24 @@
       <c r="J6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-      <c r="O6" s="123">
+      <c r="K6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="P6" s="123">
         <v>3</v>
       </c>
-      <c r="P6" s="124" t="s">
+      <c r="Q6" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="Q6" s="123">
+      <c r="R6" s="123">
         <v>1</v>
       </c>
-      <c r="R6" s="124"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="124"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
@@ -5730,23 +5803,24 @@
       <c r="H7" s="62"/>
       <c r="I7" s="127"/>
       <c r="J7" s="127"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="O7" s="96">
+      <c r="K7" s="127"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="43"/>
+      <c r="P7" s="96">
         <v>4</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="Q7" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="Q7" s="96">
-        <v>0</v>
-      </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="96">
+        <v>0</v>
+      </c>
+      <c r="S7" s="62" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -5758,21 +5832,22 @@
       <c r="H8" s="62"/>
       <c r="I8" s="127"/>
       <c r="J8" s="127"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
-      <c r="O8" s="123">
+      <c r="K8" s="127"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="P8" s="123">
         <v>5</v>
       </c>
-      <c r="P8" s="124" t="s">
+      <c r="Q8" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="Q8" s="123">
+      <c r="R8" s="123">
         <v>1</v>
       </c>
-      <c r="R8" s="124"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="124"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
@@ -5784,21 +5859,22 @@
       <c r="H9" s="62"/>
       <c r="I9" s="127"/>
       <c r="J9" s="127"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="O9" s="96">
+      <c r="K9" s="127"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="P9" s="96">
         <v>6</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="Q9" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="Q9" s="96">
-        <v>0</v>
-      </c>
-      <c r="R9" s="62"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R9" s="96">
+        <v>0</v>
+      </c>
+      <c r="S9" s="62"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
@@ -5810,21 +5886,22 @@
       <c r="H10" s="62"/>
       <c r="I10" s="127"/>
       <c r="J10" s="127"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="O10" s="96">
+      <c r="K10" s="127"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="P10" s="96">
         <v>7</v>
       </c>
-      <c r="P10" s="62" t="s">
+      <c r="Q10" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="Q10" s="96">
-        <v>0</v>
-      </c>
-      <c r="R10" s="62"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R10" s="96">
+        <v>0</v>
+      </c>
+      <c r="S10" s="62"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="129">
         <v>6</v>
       </c>
@@ -5836,25 +5913,26 @@
       <c r="H11" s="133"/>
       <c r="I11" s="146"/>
       <c r="J11" s="146"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
-      <c r="O11" s="96">
+      <c r="K11" s="146"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="P11" s="96">
         <v>8</v>
       </c>
-      <c r="P11" s="62" t="s">
+      <c r="Q11" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="Q11" s="96">
-        <v>0</v>
-      </c>
-      <c r="R11" s="62"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="164" t="s">
+      <c r="R11" s="96">
+        <v>0</v>
+      </c>
+      <c r="S11" s="62"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="62" t="s">
         <v>199</v>
       </c>
@@ -5876,21 +5954,24 @@
       <c r="J12" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="127"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="140"/>
-      <c r="O12" s="96">
+      <c r="K12" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12" s="127"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="140"/>
+      <c r="P12" s="96">
         <v>9</v>
       </c>
-      <c r="P12" s="62" t="s">
+      <c r="Q12" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="Q12" s="96">
-        <v>0</v>
-      </c>
-      <c r="R12" s="62"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R12" s="96">
+        <v>0</v>
+      </c>
+      <c r="S12" s="62"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="139"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -5906,21 +5987,24 @@
       <c r="J13" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="K13" s="127"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="34"/>
-      <c r="O13" s="96">
+      <c r="K13" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="127"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="34"/>
+      <c r="P13" s="96">
         <v>10</v>
       </c>
-      <c r="P13" s="62" t="s">
+      <c r="Q13" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="Q13" s="96">
-        <v>0</v>
-      </c>
-      <c r="R13" s="62"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R13" s="96">
+        <v>0</v>
+      </c>
+      <c r="S13" s="62"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="139"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -5932,21 +6016,24 @@
       <c r="J14" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="127"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="34"/>
-      <c r="O14" s="96">
+      <c r="K14" s="127" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="127"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="34"/>
+      <c r="P14" s="96">
         <v>11</v>
       </c>
-      <c r="P14" s="62" t="s">
+      <c r="Q14" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="Q14" s="96">
-        <v>0</v>
-      </c>
-      <c r="R14" s="62"/>
-    </row>
-    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="96">
+        <v>0</v>
+      </c>
+      <c r="S14" s="62"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="141"/>
       <c r="C15" s="142"/>
       <c r="D15" s="142"/>
@@ -5957,49 +6044,50 @@
       <c r="I15" s="145"/>
       <c r="J15" s="145"/>
       <c r="K15" s="145"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="O16" s="96"/>
-      <c r="P16" s="64" t="s">
+      <c r="L15" s="145"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P16" s="96"/>
+      <c r="Q16" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="Q16" s="125">
-        <f>SUM(Q4:Q14)</f>
+      <c r="R16" s="125">
+        <f>SUM(R4:R14)</f>
         <v>4</v>
       </c>
-      <c r="R16" s="62"/>
-    </row>
-    <row r="17" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O17" s="96"/>
-      <c r="P17" s="64" t="s">
+      <c r="S16" s="62"/>
+    </row>
+    <row r="17" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P17" s="96"/>
+      <c r="Q17" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="125">
-        <f>COUNT(Q4:Q14)</f>
+      <c r="R17" s="125">
+        <f>COUNT(R4:R14)</f>
         <v>11</v>
       </c>
-      <c r="R17" s="62"/>
-    </row>
-    <row r="18" spans="15:18" x14ac:dyDescent="0.3">
-      <c r="O18" s="96"/>
-      <c r="P18" s="64" t="s">
+      <c r="S17" s="62"/>
+    </row>
+    <row r="18" spans="16:19" x14ac:dyDescent="0.3">
+      <c r="P18" s="96"/>
+      <c r="Q18" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="Q18" s="125">
-        <f>ROUND((Q16/Q17)*100,2)</f>
+      <c r="R18" s="125">
+        <f>ROUND((R16/R17)*100,2)</f>
         <v>36.36</v>
       </c>
-      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="B2:K3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
+++ b/Offline/BusinessManagement/Ops/Ops-2023-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE78C2C9-3A10-4FF1-8AF6-1392DADA06EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632095B7-87A0-47FB-A2CA-32B524C167AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="577" activeTab="7" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="237">
   <si>
     <t>Course</t>
   </si>
@@ -726,9 +726,6 @@
     <t>1) Vector Algebra</t>
   </si>
   <si>
-    <t>Practice Test</t>
-  </si>
-  <si>
     <t>1) Laws of Motion</t>
   </si>
   <si>
@@ -815,6 +812,30 @@
   </si>
   <si>
     <t>algebra for exam</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Obtained</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Chapters on Test</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>1) Monthly Math Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Monthly Physics Test </t>
+  </si>
+  <si>
+    <t>On Laws Of Motion</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1546,6 +1567,19 @@
     <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1820,32 +1854,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1939,17 +1954,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2388,14 +2424,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
       <c r="M2" s="97" t="s">
         <v>147</v>
       </c>
@@ -2413,18 +2449,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="164" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="166"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
       <c r="M3" s="62"/>
       <c r="N3" s="96"/>
       <c r="O3" s="62"/>
@@ -2432,10 +2468,10 @@
       <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="155" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -2461,8 +2497,8 @@
       <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -2636,10 +2672,10 @@
       <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="94"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -4094,14 +4130,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="149"/>
       <c r="M2" s="125" t="s">
         <v>145</v>
       </c>
@@ -4116,28 +4152,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="164" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="166"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="159"/>
       <c r="M3" s="96"/>
       <c r="N3" s="62"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="155" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="37"/>
@@ -4160,8 +4196,8 @@
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
@@ -4328,10 +4364,10 @@
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -4637,16 +4673,16 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="156"/>
+      <c r="B2" s="147" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
       <c r="O2" s="125" t="s">
         <v>145</v>
       </c>
@@ -4661,30 +4697,30 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="164" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="166"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="159"/>
       <c r="O3" s="96"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="62"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="155" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -4721,25 +4757,25 @@
       <c r="R4" s="62"/>
     </row>
     <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J5" s="58"/>
       <c r="K5" s="59"/>
@@ -4927,27 +4963,27 @@
       <c r="R11" s="62"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="168"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="126" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O12" s="96"/>
       <c r="P12" s="62"/>
@@ -4958,7 +4994,7 @@
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
@@ -5023,10 +5059,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DABE7A-7845-46EA-BB0E-44CB73A3B0F1}">
-  <dimension ref="B1:S24"/>
+  <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5038,111 +5074,122 @@
     <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="172" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="175"/>
-      <c r="P2" s="98" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="168"/>
+      <c r="Q2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="R2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="S2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="97" t="s">
+      <c r="T2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="164" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="62"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="158"/>
+      <c r="O3" s="159"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="62"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="128">
+      <c r="D4" s="181">
         <v>45262</v>
       </c>
-      <c r="E4" s="128">
+      <c r="E4" s="181">
         <v>45265</v>
       </c>
-      <c r="F4" s="128">
+      <c r="F4" s="181">
         <v>45269</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="181">
         <v>45272</v>
       </c>
-      <c r="H4" s="128">
+      <c r="H4" s="181">
         <v>45276</v>
       </c>
-      <c r="I4" s="152">
+      <c r="I4" s="145">
         <v>45279</v>
       </c>
-      <c r="J4" s="152">
+      <c r="J4" s="177">
         <v>45286</v>
       </c>
-      <c r="K4" s="152">
+      <c r="K4" s="145">
         <v>45288</v>
       </c>
-      <c r="L4" s="149"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="116"/>
-      <c r="P4" s="123">
+      <c r="L4" s="145">
+        <v>45290</v>
+      </c>
+      <c r="M4" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="123">
         <v>1</v>
       </c>
-      <c r="Q4" s="124" t="s">
+      <c r="R4" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="123">
+      <c r="S4" s="123">
         <v>1</v>
       </c>
-      <c r="S4" s="124"/>
-    </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="T4" s="124"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="182"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="61" t="s">
         <v>49</v>
       </c>
@@ -5150,39 +5197,42 @@
         <v>49</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="153" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="153" t="s">
-        <v>203</v>
-      </c>
-      <c r="K5" s="153" t="s">
-        <v>203</v>
-      </c>
-      <c r="L5" s="150"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
-      <c r="P5" s="123">
+        <v>202</v>
+      </c>
+      <c r="I5" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="178" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="M5" s="143"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="Q5" s="123">
         <v>2</v>
       </c>
-      <c r="Q5" s="124" t="s">
+      <c r="R5" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="R5" s="123">
+      <c r="S5" s="123">
         <v>1</v>
       </c>
-      <c r="S5" s="124"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="T5" s="124"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="183">
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -5206,28 +5256,38 @@
       <c r="I6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="49" t="s">
         <v>47</v>
       </c>
       <c r="K6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="151"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
-      <c r="P6" s="123">
+      <c r="L6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="144">
+        <v>40</v>
+      </c>
+      <c r="N6" s="53">
+        <v>18</v>
+      </c>
+      <c r="O6" s="54">
+        <f>ROUND((N6/M6)*100,2)</f>
+        <v>45</v>
+      </c>
+      <c r="Q6" s="123">
         <v>3</v>
       </c>
-      <c r="Q6" s="124" t="s">
+      <c r="R6" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="R6" s="123">
+      <c r="S6" s="123">
         <v>1</v>
       </c>
-      <c r="S6" s="124"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="33">
+      <c r="T6" s="124"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="96">
         <v>2</v>
       </c>
       <c r="C7" s="34"/>
@@ -5237,24 +5297,25 @@
       <c r="G7" s="49"/>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="43"/>
-      <c r="P7" s="123">
+      <c r="L7" s="42"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43"/>
+      <c r="Q7" s="123">
         <v>4</v>
       </c>
-      <c r="Q7" s="124" t="s">
+      <c r="R7" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="R7" s="123">
+      <c r="S7" s="123">
         <v>1</v>
       </c>
-      <c r="S7" s="124"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="33">
+      <c r="T7" s="124"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="96">
         <v>3</v>
       </c>
       <c r="C8" s="34"/>
@@ -5264,24 +5325,25 @@
       <c r="G8" s="49"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="P8" s="96">
+      <c r="L8" s="42"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="Q8" s="96">
         <v>5</v>
       </c>
-      <c r="Q8" s="62" t="s">
+      <c r="R8" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="R8" s="96">
-        <v>0</v>
-      </c>
-      <c r="S8" s="62"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="33">
+      <c r="S8" s="96">
+        <v>0</v>
+      </c>
+      <c r="T8" s="62"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="96">
         <v>4</v>
       </c>
       <c r="C9" s="34"/>
@@ -5291,24 +5353,25 @@
       <c r="G9" s="49"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="P9" s="123">
+      <c r="L9" s="42"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="Q9" s="123">
         <v>6</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="R9" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="R9" s="123">
+      <c r="S9" s="123">
         <v>1</v>
       </c>
-      <c r="S9" s="124"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="33">
+      <c r="T9" s="124"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="96">
         <v>5</v>
       </c>
       <c r="C10" s="34"/>
@@ -5318,24 +5381,25 @@
       <c r="G10" s="49"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="P10" s="123">
+      <c r="L10" s="42"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="Q10" s="123">
         <v>7</v>
       </c>
-      <c r="Q10" s="124" t="s">
+      <c r="R10" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="R10" s="123">
+      <c r="S10" s="123">
         <v>1</v>
       </c>
-      <c r="S10" s="124"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="33">
+      <c r="T10" s="124"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="96">
         <v>6</v>
       </c>
       <c r="C11" s="62"/>
@@ -5345,67 +5409,77 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="134"/>
-      <c r="P11" s="123">
+      <c r="L11" s="42"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="134"/>
+      <c r="Q11" s="123">
         <v>8</v>
       </c>
-      <c r="Q11" s="124" t="s">
+      <c r="R11" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="R11" s="123">
+      <c r="S11" s="123">
         <v>1</v>
       </c>
-      <c r="S11" s="124"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="171" t="s">
+      <c r="T11" s="124"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="62" t="s">
         <v>197</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="J12" s="141" t="s">
+        <v>216</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="L12" s="127"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="140"/>
-      <c r="P12" s="96">
+        <v>216</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="M12" s="127" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="136">
+        <v>45290</v>
+      </c>
+      <c r="Q12" s="96">
         <v>9</v>
       </c>
-      <c r="Q12" s="62" t="s">
+      <c r="R12" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="R12" s="96">
-        <v>0</v>
-      </c>
-      <c r="S12" s="62"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
+      <c r="S12" s="96">
+        <v>0</v>
+      </c>
+      <c r="T12" s="62"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -5413,176 +5487,183 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" t="s">
-        <v>226</v>
-      </c>
-      <c r="L13" s="127"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="34"/>
-      <c r="P13" s="96">
+        <v>217</v>
+      </c>
+      <c r="J13" s="141" t="s">
+        <v>221</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="34"/>
+      <c r="Q13" s="96">
         <v>10</v>
       </c>
-      <c r="Q13" s="62" t="s">
+      <c r="R13" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="R13" s="96">
-        <v>0</v>
-      </c>
-      <c r="S13" s="62"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
+      <c r="S13" s="96">
+        <v>0</v>
+      </c>
+      <c r="T13" s="62"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="34" t="s">
-        <v>223</v>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141" t="s">
+        <v>222</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="139"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="34"/>
-      <c r="P14" s="96">
+        <v>227</v>
+      </c>
+      <c r="L14" s="62"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="34"/>
+      <c r="Q14" s="96">
         <v>11</v>
       </c>
-      <c r="Q14" s="62" t="s">
+      <c r="R14" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="R14" s="96">
-        <v>0</v>
-      </c>
-      <c r="S14" s="62"/>
-    </row>
-    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="L15" s="141"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="36"/>
-      <c r="P15" s="96">
+      <c r="S14" s="96">
+        <v>0</v>
+      </c>
+      <c r="T14" s="62"/>
+    </row>
+    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="L15" s="62"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="36"/>
+      <c r="Q15" s="96">
         <v>12</v>
       </c>
-      <c r="Q15" s="62" t="s">
+      <c r="R15" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="R15" s="96">
-        <v>0</v>
-      </c>
-      <c r="S15" s="62"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="P16" s="96">
+      <c r="S15" s="96">
+        <v>0</v>
+      </c>
+      <c r="T15" s="62"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q16" s="96">
         <v>13</v>
       </c>
-      <c r="Q16" s="62" t="s">
+      <c r="R16" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="R16" s="96">
-        <v>0</v>
-      </c>
-      <c r="S16" s="62"/>
-    </row>
-    <row r="17" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="P17" s="96">
+      <c r="S16" s="96">
+        <v>0</v>
+      </c>
+      <c r="T16" s="62"/>
+    </row>
+    <row r="17" spans="15:20" x14ac:dyDescent="0.3">
+      <c r="Q17" s="96">
         <v>14</v>
       </c>
-      <c r="Q17" s="62" t="s">
+      <c r="R17" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="R17" s="96">
-        <v>0</v>
-      </c>
-      <c r="S17" s="62"/>
-    </row>
-    <row r="18" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="P18" s="96">
+      <c r="S17" s="96">
+        <v>0</v>
+      </c>
+      <c r="T17" s="62"/>
+    </row>
+    <row r="18" spans="15:20" x14ac:dyDescent="0.3">
+      <c r="Q18" s="96">
         <v>15</v>
       </c>
-      <c r="Q18" s="62" t="s">
+      <c r="R18" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="96">
-        <v>0</v>
-      </c>
-      <c r="S18" s="62"/>
-    </row>
-    <row r="19" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="P19" s="123">
+      <c r="S18" s="96">
+        <v>0</v>
+      </c>
+      <c r="T18" s="62"/>
+    </row>
+    <row r="19" spans="15:20" x14ac:dyDescent="0.3">
+      <c r="Q19" s="123">
         <v>16</v>
       </c>
-      <c r="Q19" s="124" t="s">
-        <v>211</v>
-      </c>
-      <c r="R19" s="123">
+      <c r="R19" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="S19" s="123">
         <v>1</v>
       </c>
-      <c r="S19" s="124"/>
-    </row>
-    <row r="21" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="P21" s="96"/>
-      <c r="Q21" s="64" t="s">
+      <c r="T19" s="124"/>
+    </row>
+    <row r="21" spans="15:20" x14ac:dyDescent="0.3">
+      <c r="Q21" s="96"/>
+      <c r="R21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="R21" s="125">
-        <f>SUM(R4:R19)</f>
+      <c r="S21" s="125">
+        <f>SUM(S4:S19)</f>
         <v>8</v>
       </c>
-      <c r="S21" s="62"/>
-    </row>
-    <row r="22" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="P22" s="96"/>
-      <c r="Q22" s="64" t="s">
+      <c r="T21" s="62"/>
+    </row>
+    <row r="22" spans="15:20" x14ac:dyDescent="0.3">
+      <c r="Q22" s="96"/>
+      <c r="R22" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="R22" s="125">
+      <c r="S22" s="125">
         <v>16</v>
       </c>
-      <c r="S22" s="62"/>
-    </row>
-    <row r="23" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="P23" s="96"/>
-      <c r="Q23" s="64" t="s">
+      <c r="T22" s="62"/>
+    </row>
+    <row r="23" spans="15:20" x14ac:dyDescent="0.3">
+      <c r="Q23" s="96"/>
+      <c r="R23" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="R23" s="125">
-        <f>ROUND((R21/R22)*100,2)</f>
+      <c r="S23" s="125">
+        <f>ROUND((S21/S22)*100,2)</f>
         <v>50</v>
       </c>
-      <c r="S23" s="62"/>
-    </row>
-    <row r="24" spans="14:19" x14ac:dyDescent="0.3">
-      <c r="N24" t="s">
+      <c r="T23" s="62"/>
+    </row>
+    <row r="24" spans="15:20" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5591,10 +5672,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
-  <dimension ref="B1:S18"/>
+  <dimension ref="B1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5607,66 +5688,70 @@
     <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="154" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="156"/>
-      <c r="P2" s="98" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="149"/>
+      <c r="Q2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="R2" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="S2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="97" t="s">
+      <c r="T2" s="97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="62"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="169" t="s">
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="158"/>
+      <c r="O3" s="159"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="62"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="163" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="128">
@@ -5693,23 +5778,32 @@
       <c r="K4" s="128">
         <v>45288</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="137"/>
-      <c r="P4" s="123">
+      <c r="L4" s="128">
+        <v>45288</v>
+      </c>
+      <c r="M4" s="174" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="123">
         <v>1</v>
       </c>
-      <c r="Q4" s="124" t="s">
+      <c r="R4" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="R4" s="123">
+      <c r="S4" s="123">
         <v>1</v>
       </c>
-      <c r="S4" s="124"/>
-    </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="161"/>
-      <c r="C5" s="163"/>
+      <c r="T4" s="124"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="154"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="61" t="s">
         <v>198</v>
       </c>
@@ -5717,38 +5811,41 @@
         <v>198</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="138"/>
-      <c r="P5" s="123">
+        <v>203</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" s="175"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="Q5" s="123">
         <v>2</v>
       </c>
-      <c r="Q5" s="124" t="s">
+      <c r="R5" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="R5" s="123">
+      <c r="S5" s="123">
         <v>1</v>
       </c>
-      <c r="S5" s="124"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="124"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="31">
         <v>1</v>
       </c>
@@ -5777,21 +5874,31 @@
       <c r="K6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-      <c r="P6" s="123">
+      <c r="L6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="52">
+        <v>52</v>
+      </c>
+      <c r="N6" s="53">
+        <v>15</v>
+      </c>
+      <c r="O6" s="54">
+        <f>ROUND((N6/M6)*100,2)</f>
+        <v>28.85</v>
+      </c>
+      <c r="Q6" s="123">
         <v>3</v>
       </c>
-      <c r="Q6" s="124" t="s">
+      <c r="R6" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="R6" s="123">
+      <c r="S6" s="123">
         <v>1</v>
       </c>
-      <c r="S6" s="124"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="124"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33">
         <v>2</v>
       </c>
@@ -5804,23 +5911,24 @@
       <c r="I7" s="127"/>
       <c r="J7" s="127"/>
       <c r="K7" s="127"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="43"/>
-      <c r="P7" s="96">
+      <c r="L7" s="127"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43"/>
+      <c r="Q7" s="96">
         <v>4</v>
       </c>
-      <c r="Q7" s="62" t="s">
+      <c r="R7" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="R7" s="96">
-        <v>0</v>
-      </c>
-      <c r="S7" s="62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S7" s="96">
+        <v>0</v>
+      </c>
+      <c r="T7" s="62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33">
         <v>3</v>
       </c>
@@ -5833,21 +5941,22 @@
       <c r="I8" s="127"/>
       <c r="J8" s="127"/>
       <c r="K8" s="127"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="P8" s="123">
+      <c r="L8" s="127"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="Q8" s="123">
         <v>5</v>
       </c>
-      <c r="Q8" s="124" t="s">
+      <c r="R8" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="R8" s="123">
+      <c r="S8" s="123">
         <v>1</v>
       </c>
-      <c r="S8" s="124"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="124"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33">
         <v>4</v>
       </c>
@@ -5860,21 +5969,22 @@
       <c r="I9" s="127"/>
       <c r="J9" s="127"/>
       <c r="K9" s="127"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="P9" s="96">
+      <c r="L9" s="127"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="Q9" s="96">
         <v>6</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="R9" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="R9" s="96">
-        <v>0</v>
-      </c>
-      <c r="S9" s="62"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S9" s="96">
+        <v>0</v>
+      </c>
+      <c r="T9" s="62"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="33">
         <v>5</v>
       </c>
@@ -5887,21 +5997,22 @@
       <c r="I10" s="127"/>
       <c r="J10" s="127"/>
       <c r="K10" s="127"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="P10" s="96">
+      <c r="L10" s="127"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="Q10" s="96">
         <v>7</v>
       </c>
-      <c r="Q10" s="62" t="s">
+      <c r="R10" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="96">
-        <v>0</v>
-      </c>
-      <c r="S10" s="62"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S10" s="96">
+        <v>0</v>
+      </c>
+      <c r="T10" s="62"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="129">
         <v>6</v>
       </c>
@@ -5911,28 +6022,29 @@
       <c r="F11" s="132"/>
       <c r="G11" s="63"/>
       <c r="H11" s="133"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="P11" s="96">
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="134"/>
+      <c r="Q11" s="96">
         <v>8</v>
       </c>
-      <c r="Q11" s="62" t="s">
+      <c r="R11" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="R11" s="96">
-        <v>0</v>
-      </c>
-      <c r="S11" s="62"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="171" t="s">
+      <c r="S11" s="96">
+        <v>0</v>
+      </c>
+      <c r="T11" s="62"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="62" t="s">
         <v>199</v>
       </c>
@@ -5940,16 +6052,16 @@
         <v>199</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I12" s="127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J12" s="127" t="s">
         <v>199</v>
@@ -5957,55 +6069,67 @@
       <c r="K12" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="L12" s="127"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="140"/>
-      <c r="P12" s="96">
+      <c r="L12" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="135" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="136">
+        <v>45290</v>
+      </c>
+      <c r="Q12" s="96">
         <v>9</v>
       </c>
-      <c r="Q12" s="62" t="s">
+      <c r="R12" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="96">
-        <v>0</v>
-      </c>
-      <c r="S12" s="62"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
+      <c r="S12" s="96">
+        <v>0</v>
+      </c>
+      <c r="T12" s="62"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="135"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
       <c r="I13" s="127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J13" s="127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K13" s="127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L13" s="127"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="34"/>
-      <c r="P13" s="96">
+      <c r="M13" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="34"/>
+      <c r="Q13" s="96">
         <v>10</v>
       </c>
-      <c r="Q13" s="62" t="s">
+      <c r="R13" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="96">
-        <v>0</v>
-      </c>
-      <c r="S13" s="62"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
+      <c r="S13" s="96">
+        <v>0</v>
+      </c>
+      <c r="T13" s="62"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="135"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -6014,80 +6138,84 @@
       <c r="H14" s="62"/>
       <c r="I14" s="127"/>
       <c r="J14" s="127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K14" s="127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L14" s="127"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="34"/>
-      <c r="P14" s="96">
+      <c r="M14" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" s="62"/>
+      <c r="O14" s="34"/>
+      <c r="Q14" s="96">
         <v>11</v>
       </c>
-      <c r="Q14" s="62" t="s">
+      <c r="R14" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="R14" s="96">
-        <v>0</v>
-      </c>
-      <c r="S14" s="62"/>
-    </row>
-    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="36"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="P16" s="96"/>
-      <c r="Q16" s="64" t="s">
+      <c r="S14" s="96">
+        <v>0</v>
+      </c>
+      <c r="T14" s="62"/>
+    </row>
+    <row r="15" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q16" s="96"/>
+      <c r="R16" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="R16" s="125">
-        <f>SUM(R4:R14)</f>
+      <c r="S16" s="125">
+        <f>SUM(S4:S14)</f>
         <v>4</v>
       </c>
-      <c r="S16" s="62"/>
-    </row>
-    <row r="17" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P17" s="96"/>
-      <c r="Q17" s="64" t="s">
+      <c r="T16" s="62"/>
+    </row>
+    <row r="17" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q17" s="96"/>
+      <c r="R17" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="R17" s="125">
-        <f>COUNT(R4:R14)</f>
+      <c r="S17" s="125">
+        <f>COUNT(S4:S14)</f>
         <v>11</v>
       </c>
-      <c r="S17" s="62"/>
-    </row>
-    <row r="18" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P18" s="96"/>
-      <c r="Q18" s="64" t="s">
+      <c r="T17" s="62"/>
+    </row>
+    <row r="18" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q18" s="96"/>
+      <c r="R18" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="R18" s="125">
-        <f>ROUND((R16/R17)*100,2)</f>
+      <c r="S18" s="125">
+        <f>ROUND((S16/S17)*100,2)</f>
         <v>36.36</v>
       </c>
-      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B2:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
